--- a/Others/DICIONÁRIO.xlsx
+++ b/Others/DICIONÁRIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ENEM\2021\MICRODADOS\DICIONÁRIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\EnemAPI\APIEnem\APIEnem\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4442E8F0-9597-4582-97A4-D567D7212D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859EBCFA-957A-4AEB-A379-A5AD93BD55A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MICRODADOS_ENEM_2021" sheetId="2" r:id="rId1"/>
@@ -1875,6 +1875,60 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1884,32 +1938,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1920,68 +1983,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1993,18 +2002,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2418,8 +2418,8 @@
   </sheetPr>
   <dimension ref="A1:F379"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B313" sqref="B313:B317"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,62 +2433,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="87" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -2523,10 +2523,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="74" t="s">
         <v>320</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="88" t="s">
         <v>321</v>
       </c>
       <c r="C8" s="25">
@@ -2535,16 +2535,16 @@
       <c r="D8" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="63">
         <v>2</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="46">
         <v>2</v>
       </c>
@@ -2555,8 +2555,8 @@
       <c r="F9" s="69"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="46">
         <v>3</v>
       </c>
@@ -2567,8 +2567,8 @@
       <c r="F10" s="69"/>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="85"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="46">
         <v>4</v>
       </c>
@@ -2579,8 +2579,8 @@
       <c r="F11" s="69"/>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="85"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="46">
         <v>5</v>
       </c>
@@ -2591,8 +2591,8 @@
       <c r="F12" s="69"/>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
-      <c r="B13" s="85"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="46">
         <v>6</v>
       </c>
@@ -2603,8 +2603,8 @@
       <c r="F13" s="69"/>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="46">
         <v>7</v>
       </c>
@@ -2615,8 +2615,8 @@
       <c r="F14" s="69"/>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="85"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="46">
         <v>8</v>
       </c>
@@ -2627,8 +2627,8 @@
       <c r="F15" s="69"/>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="46">
         <v>9</v>
       </c>
@@ -2639,8 +2639,8 @@
       <c r="F16" s="69"/>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="85"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="46">
         <v>10</v>
       </c>
@@ -2651,8 +2651,8 @@
       <c r="F17" s="69"/>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="85"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="46">
         <v>11</v>
       </c>
@@ -2663,8 +2663,8 @@
       <c r="F18" s="69"/>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="85"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="46">
         <v>12</v>
       </c>
@@ -2675,8 +2675,8 @@
       <c r="F19" s="69"/>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="85"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="46">
         <v>13</v>
       </c>
@@ -2687,8 +2687,8 @@
       <c r="F20" s="69"/>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="85"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="46">
         <v>14</v>
       </c>
@@ -2699,8 +2699,8 @@
       <c r="F21" s="69"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="85"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="46">
         <v>15</v>
       </c>
@@ -2711,8 +2711,8 @@
       <c r="F22" s="69"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
-      <c r="B23" s="85"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="89"/>
       <c r="C23" s="46">
         <v>16</v>
       </c>
@@ -2723,8 +2723,8 @@
       <c r="F23" s="69"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="89"/>
       <c r="C24" s="46">
         <v>17</v>
       </c>
@@ -2735,8 +2735,8 @@
       <c r="F24" s="69"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="85"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="46">
         <v>18</v>
       </c>
@@ -2747,8 +2747,8 @@
       <c r="F25" s="69"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="85"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="46">
         <v>19</v>
       </c>
@@ -2759,22 +2759,22 @@
       <c r="F26" s="69"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="86"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="90"/>
       <c r="C27" s="46">
         <v>20</v>
       </c>
       <c r="D27" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="78" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -2783,30 +2783,30 @@
       <c r="D28" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="79">
         <v>1</v>
       </c>
-      <c r="F28" s="61" t="s">
+      <c r="F28" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="25" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="59" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="27">
@@ -2815,16 +2815,16 @@
       <c r="D30" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="63">
         <v>1</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="F30" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="66"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="39">
         <v>1</v>
       </c>
@@ -2835,8 +2835,8 @@
       <c r="F31" s="69"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="66"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="39">
         <v>2</v>
       </c>
@@ -2847,8 +2847,8 @@
       <c r="F32" s="69"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="66"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="39">
         <v>3</v>
       </c>
@@ -2859,22 +2859,22 @@
       <c r="F33" s="69"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="67"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="27">
         <v>4</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="59" t="s">
         <v>59</v>
       </c>
       <c r="C35" s="36">
@@ -2883,16 +2883,16 @@
       <c r="D35" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="63">
         <v>1</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F35" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="66"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="36">
         <v>1</v>
       </c>
@@ -2903,8 +2903,8 @@
       <c r="F36" s="69"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="66"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="36">
         <v>2</v>
       </c>
@@ -2915,8 +2915,8 @@
       <c r="F37" s="69"/>
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="66"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="36">
         <v>3</v>
       </c>
@@ -2927,8 +2927,8 @@
       <c r="F38" s="69"/>
     </row>
     <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="66"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="36">
         <v>4</v>
       </c>
@@ -2939,8 +2939,8 @@
       <c r="F39" s="69"/>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="66"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="53">
         <v>5</v>
       </c>
@@ -2951,22 +2951,22 @@
       <c r="F40" s="69"/>
     </row>
     <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="67"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="36">
         <v>6</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="78" t="s">
         <v>107</v>
       </c>
       <c r="C42" s="36">
@@ -2975,16 +2975,16 @@
       <c r="D42" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="68">
+      <c r="E42" s="63">
         <v>1</v>
       </c>
-      <c r="F42" s="68" t="s">
+      <c r="F42" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="36">
         <v>1</v>
       </c>
@@ -2995,8 +2995,8 @@
       <c r="F43" s="69"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="78"/>
       <c r="C44" s="36">
         <v>2</v>
       </c>
@@ -3007,8 +3007,8 @@
       <c r="F44" s="69"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="78"/>
       <c r="C45" s="36">
         <v>3</v>
       </c>
@@ -3019,22 +3019,22 @@
       <c r="F45" s="69"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="78"/>
       <c r="C46" s="36">
         <v>4</v>
       </c>
       <c r="D46" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="78" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="25">
@@ -3043,54 +3043,54 @@
       <c r="D47" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E47" s="61">
+      <c r="E47" s="79">
         <v>1</v>
       </c>
-      <c r="F47" s="61" t="s">
+      <c r="F47" s="79" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="60"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="78"/>
       <c r="C48" s="25">
         <v>2</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="78"/>
       <c r="C49" s="25">
         <v>3</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
     </row>
     <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="60"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="78"/>
       <c r="C50" s="25">
         <v>4</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="59" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="36">
@@ -3099,16 +3099,16 @@
       <c r="D51" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="E51" s="68">
+      <c r="E51" s="63">
         <v>1</v>
       </c>
-      <c r="F51" s="68" t="s">
+      <c r="F51" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63"/>
-      <c r="B52" s="66"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="53">
         <v>1</v>
       </c>
@@ -3119,8 +3119,8 @@
       <c r="F52" s="69"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
-      <c r="B53" s="66"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="53">
         <v>2</v>
       </c>
@@ -3131,8 +3131,8 @@
       <c r="F53" s="69"/>
     </row>
     <row r="54" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
-      <c r="B54" s="66"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="53">
         <v>3</v>
       </c>
@@ -3143,8 +3143,8 @@
       <c r="F54" s="69"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
-      <c r="B55" s="66"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="68"/>
       <c r="C55" s="53">
         <v>4</v>
       </c>
@@ -3155,8 +3155,8 @@
       <c r="F55" s="69"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
-      <c r="B56" s="66"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="68"/>
       <c r="C56" s="53">
         <v>5</v>
       </c>
@@ -3167,8 +3167,8 @@
       <c r="F56" s="69"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="66"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="68"/>
       <c r="C57" s="53">
         <v>6</v>
       </c>
@@ -3179,8 +3179,8 @@
       <c r="F57" s="69"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
-      <c r="B58" s="66"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="68"/>
       <c r="C58" s="53">
         <v>7</v>
       </c>
@@ -3191,8 +3191,8 @@
       <c r="F58" s="69"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="63"/>
-      <c r="B59" s="66"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="68"/>
       <c r="C59" s="53">
         <v>8</v>
       </c>
@@ -3203,8 +3203,8 @@
       <c r="F59" s="69"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="63"/>
-      <c r="B60" s="66"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="53">
         <v>9</v>
       </c>
@@ -3215,8 +3215,8 @@
       <c r="F60" s="69"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="63"/>
-      <c r="B61" s="66"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="68"/>
       <c r="C61" s="53">
         <v>10</v>
       </c>
@@ -3227,8 +3227,8 @@
       <c r="F61" s="69"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="63"/>
-      <c r="B62" s="66"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="53">
         <v>11</v>
       </c>
@@ -3239,8 +3239,8 @@
       <c r="F62" s="69"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
-      <c r="B63" s="66"/>
+      <c r="A63" s="66"/>
+      <c r="B63" s="68"/>
       <c r="C63" s="53">
         <v>12</v>
       </c>
@@ -3251,8 +3251,8 @@
       <c r="F63" s="69"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="66"/>
+      <c r="A64" s="66"/>
+      <c r="B64" s="68"/>
       <c r="C64" s="53">
         <v>13</v>
       </c>
@@ -3263,8 +3263,8 @@
       <c r="F64" s="69"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="66"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="68"/>
       <c r="C65" s="53">
         <v>14</v>
       </c>
@@ -3275,22 +3275,22 @@
       <c r="F65" s="69"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
-      <c r="B66" s="67"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="60"/>
       <c r="C66" s="36">
         <v>15</v>
       </c>
       <c r="D66" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="62" t="s">
+      <c r="A67" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="59" t="s">
         <v>142</v>
       </c>
       <c r="C67" s="42">
@@ -3299,16 +3299,16 @@
       <c r="D67" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="E67" s="68">
+      <c r="E67" s="63">
         <v>1</v>
       </c>
-      <c r="F67" s="68" t="s">
+      <c r="F67" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="63"/>
-      <c r="B68" s="66"/>
+      <c r="A68" s="66"/>
+      <c r="B68" s="68"/>
       <c r="C68" s="42">
         <v>2</v>
       </c>
@@ -3319,22 +3319,22 @@
       <c r="F68" s="69"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="64"/>
-      <c r="B69" s="67"/>
+      <c r="A69" s="67"/>
+      <c r="B69" s="60"/>
       <c r="C69" s="42">
         <v>3</v>
       </c>
       <c r="D69" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="65" t="s">
+      <c r="A70" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="B70" s="65" t="s">
+      <c r="B70" s="59" t="s">
         <v>54</v>
       </c>
       <c r="C70" s="27">
@@ -3343,30 +3343,30 @@
       <c r="D70" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E70" s="90">
+      <c r="E70" s="61">
         <v>1</v>
       </c>
-      <c r="F70" s="68" t="s">
+      <c r="F70" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
-      <c r="B71" s="67"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="60"/>
       <c r="C71" s="27">
         <v>2</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="E71" s="92"/>
-      <c r="F71" s="70"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="64"/>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="59" t="s">
+      <c r="A72" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="B72" s="60" t="s">
+      <c r="B72" s="78" t="s">
         <v>269</v>
       </c>
       <c r="C72" s="25">
@@ -3375,90 +3375,90 @@
       <c r="D72" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E72" s="61">
+      <c r="E72" s="79">
         <v>1</v>
       </c>
-      <c r="F72" s="61" t="s">
+      <c r="F72" s="79" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
-      <c r="B73" s="60"/>
+      <c r="A73" s="77"/>
+      <c r="B73" s="78"/>
       <c r="C73" s="25">
         <v>0</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="74" t="s">
+      <c r="A74" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B74" s="74"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="80"/>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="60" t="s">
+      <c r="A75" s="78" t="s">
         <v>226</v>
       </c>
       <c r="B75" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="78"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="61">
+      <c r="C75" s="91"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="79">
         <v>7</v>
       </c>
-      <c r="F75" s="61" t="s">
+      <c r="F75" s="79" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="59"/>
+      <c r="A76" s="77"/>
       <c r="B76" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="78"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="59"/>
+      <c r="A77" s="77"/>
       <c r="B77" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="78"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
+      <c r="A78" s="77"/>
       <c r="B78" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="59"/>
+      <c r="A79" s="77"/>
       <c r="B79" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="78"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="61"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
@@ -3509,10 +3509,10 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="59" t="s">
+      <c r="A83" s="77" t="s">
         <v>229</v>
       </c>
-      <c r="B83" s="60" t="s">
+      <c r="B83" s="78" t="s">
         <v>65</v>
       </c>
       <c r="C83" s="25">
@@ -3521,54 +3521,54 @@
       <c r="D83" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E83" s="61">
+      <c r="E83" s="79">
         <v>1</v>
       </c>
-      <c r="F83" s="61" t="s">
+      <c r="F83" s="79" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="59"/>
-      <c r="B84" s="60"/>
+      <c r="A84" s="77"/>
+      <c r="B84" s="78"/>
       <c r="C84" s="25">
         <v>2</v>
       </c>
       <c r="D84" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
-      <c r="B85" s="60"/>
+      <c r="A85" s="77"/>
+      <c r="B85" s="78"/>
       <c r="C85" s="25">
         <v>3</v>
       </c>
       <c r="D85" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
-      <c r="B86" s="60"/>
+      <c r="A86" s="77"/>
+      <c r="B86" s="78"/>
       <c r="C86" s="25">
         <v>4</v>
       </c>
       <c r="D86" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="59" t="s">
+      <c r="A87" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="78" t="s">
         <v>67</v>
       </c>
       <c r="C87" s="25">
@@ -3577,30 +3577,30 @@
       <c r="D87" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E87" s="61">
+      <c r="E87" s="79">
         <v>1</v>
       </c>
-      <c r="F87" s="61" t="s">
+      <c r="F87" s="79" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="59"/>
-      <c r="B88" s="60"/>
+      <c r="A88" s="77"/>
+      <c r="B88" s="78"/>
       <c r="C88" s="25">
         <v>2</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="83" t="s">
+      <c r="A89" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B89" s="75" t="s">
+      <c r="B89" s="71" t="s">
         <v>69</v>
       </c>
       <c r="C89" s="35">
@@ -3609,114 +3609,114 @@
       <c r="D89" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E89" s="90">
+      <c r="E89" s="61">
         <v>1</v>
       </c>
-      <c r="F89" s="90" t="s">
+      <c r="F89" s="61" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="76"/>
-      <c r="B90" s="93"/>
+      <c r="A90" s="75"/>
+      <c r="B90" s="72"/>
       <c r="C90" s="35">
         <v>2</v>
       </c>
       <c r="D90" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E90" s="91"/>
-      <c r="F90" s="91"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="76"/>
-      <c r="B91" s="93"/>
+      <c r="A91" s="75"/>
+      <c r="B91" s="72"/>
       <c r="C91" s="35">
         <v>3</v>
       </c>
       <c r="D91" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="77"/>
-      <c r="B92" s="94"/>
+      <c r="A92" s="76"/>
+      <c r="B92" s="73"/>
       <c r="C92" s="41">
         <v>4</v>
       </c>
       <c r="D92" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="E92" s="92"/>
-      <c r="F92" s="92"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
     </row>
     <row r="93" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="74" t="s">
+      <c r="A93" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="B93" s="74"/>
-      <c r="C93" s="74"/>
-      <c r="D93" s="74"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="74"/>
+      <c r="B93" s="80"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
     </row>
     <row r="94" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="75" t="s">
+      <c r="A94" s="71" t="s">
         <v>236</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C94" s="78"/>
-      <c r="D94" s="78"/>
-      <c r="E94" s="61">
+      <c r="C94" s="91"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="79">
         <v>7</v>
       </c>
-      <c r="F94" s="61" t="s">
+      <c r="F94" s="79" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="76"/>
+      <c r="A95" s="75"/>
       <c r="B95" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="78"/>
-      <c r="D95" s="78"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61"/>
+      <c r="C95" s="91"/>
+      <c r="D95" s="91"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="79"/>
     </row>
     <row r="96" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="76"/>
+      <c r="A96" s="75"/>
       <c r="B96" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="78"/>
-      <c r="D96" s="78"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="79"/>
     </row>
     <row r="97" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="76"/>
+      <c r="A97" s="75"/>
       <c r="B97" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="78"/>
-      <c r="D97" s="78"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="61"/>
+      <c r="C97" s="91"/>
+      <c r="D97" s="91"/>
+      <c r="E97" s="79"/>
+      <c r="F97" s="79"/>
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="77"/>
+      <c r="A98" s="76"/>
       <c r="B98" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="78"/>
-      <c r="D98" s="78"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="91"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="79"/>
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
@@ -3767,20 +3767,20 @@
       </c>
     </row>
     <row r="102" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="74" t="s">
+      <c r="A102" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="B102" s="74"/>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="80"/>
+      <c r="D102" s="80"/>
+      <c r="E102" s="80"/>
+      <c r="F102" s="80"/>
     </row>
     <row r="103" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="59" t="s">
+      <c r="A103" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="B103" s="60" t="s">
+      <c r="B103" s="78" t="s">
         <v>73</v>
       </c>
       <c r="C103" s="42">
@@ -3789,42 +3789,42 @@
       <c r="D103" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E103" s="61">
+      <c r="E103" s="79">
         <v>1</v>
       </c>
-      <c r="F103" s="61" t="s">
+      <c r="F103" s="79" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="59"/>
-      <c r="B104" s="60"/>
+      <c r="A104" s="77"/>
+      <c r="B104" s="78"/>
       <c r="C104" s="42">
         <v>1</v>
       </c>
       <c r="D104" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
     </row>
     <row r="105" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="59"/>
-      <c r="B105" s="60"/>
+      <c r="A105" s="77"/>
+      <c r="B105" s="78"/>
       <c r="C105" s="42">
         <v>2</v>
       </c>
       <c r="D105" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E105" s="61"/>
-      <c r="F105" s="61"/>
+      <c r="E105" s="79"/>
+      <c r="F105" s="79"/>
     </row>
     <row r="106" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="59" t="s">
+      <c r="A106" s="77" t="s">
         <v>253</v>
       </c>
-      <c r="B106" s="60" t="s">
+      <c r="B106" s="78" t="s">
         <v>77</v>
       </c>
       <c r="C106" s="42">
@@ -3833,42 +3833,42 @@
       <c r="D106" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E106" s="61">
+      <c r="E106" s="79">
         <v>1</v>
       </c>
-      <c r="F106" s="61" t="s">
+      <c r="F106" s="79" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="59"/>
-      <c r="B107" s="60"/>
+      <c r="A107" s="77"/>
+      <c r="B107" s="78"/>
       <c r="C107" s="42">
         <v>1</v>
       </c>
       <c r="D107" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E107" s="61"/>
-      <c r="F107" s="61"/>
+      <c r="E107" s="79"/>
+      <c r="F107" s="79"/>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="59"/>
-      <c r="B108" s="60"/>
+      <c r="A108" s="77"/>
+      <c r="B108" s="78"/>
       <c r="C108" s="42">
         <v>2</v>
       </c>
       <c r="D108" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E108" s="61"/>
-      <c r="F108" s="61"/>
+      <c r="E108" s="79"/>
+      <c r="F108" s="79"/>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="59" t="s">
+      <c r="A109" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="B109" s="60" t="s">
+      <c r="B109" s="78" t="s">
         <v>78</v>
       </c>
       <c r="C109" s="42">
@@ -3877,42 +3877,42 @@
       <c r="D109" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E109" s="61">
+      <c r="E109" s="79">
         <v>1</v>
       </c>
-      <c r="F109" s="61" t="s">
+      <c r="F109" s="79" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="59"/>
-      <c r="B110" s="60"/>
+      <c r="A110" s="77"/>
+      <c r="B110" s="78"/>
       <c r="C110" s="42">
         <v>1</v>
       </c>
       <c r="D110" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E110" s="61"/>
-      <c r="F110" s="61"/>
+      <c r="E110" s="79"/>
+      <c r="F110" s="79"/>
     </row>
     <row r="111" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="59"/>
-      <c r="B111" s="60"/>
+      <c r="A111" s="77"/>
+      <c r="B111" s="78"/>
       <c r="C111" s="42">
         <v>2</v>
       </c>
       <c r="D111" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E111" s="61"/>
-      <c r="F111" s="61"/>
+      <c r="E111" s="79"/>
+      <c r="F111" s="79"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="59" t="s">
+      <c r="A112" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="B112" s="60" t="s">
+      <c r="B112" s="78" t="s">
         <v>79</v>
       </c>
       <c r="C112" s="42">
@@ -3921,42 +3921,42 @@
       <c r="D112" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E112" s="61">
+      <c r="E112" s="79">
         <v>1</v>
       </c>
-      <c r="F112" s="61" t="s">
+      <c r="F112" s="79" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="59"/>
-      <c r="B113" s="60"/>
+      <c r="A113" s="77"/>
+      <c r="B113" s="78"/>
       <c r="C113" s="42">
         <v>1</v>
       </c>
       <c r="D113" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E113" s="61"/>
-      <c r="F113" s="61"/>
+      <c r="E113" s="79"/>
+      <c r="F113" s="79"/>
     </row>
     <row r="114" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="59"/>
-      <c r="B114" s="60"/>
+      <c r="A114" s="77"/>
+      <c r="B114" s="78"/>
       <c r="C114" s="42">
         <v>2</v>
       </c>
       <c r="D114" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E114" s="61"/>
-      <c r="F114" s="61"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="79"/>
     </row>
     <row r="115" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="62" t="s">
+      <c r="A115" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="B115" s="65" t="s">
+      <c r="B115" s="59" t="s">
         <v>80</v>
       </c>
       <c r="C115" s="42">
@@ -3965,16 +3965,16 @@
       <c r="D115" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E115" s="68">
+      <c r="E115" s="63">
         <v>4</v>
       </c>
-      <c r="F115" s="68" t="s">
+      <c r="F115" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="63"/>
-      <c r="B116" s="66"/>
+      <c r="A116" s="66"/>
+      <c r="B116" s="68"/>
       <c r="C116" s="42">
         <v>910</v>
       </c>
@@ -3985,8 +3985,8 @@
       <c r="F116" s="69"/>
     </row>
     <row r="117" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="63"/>
-      <c r="B117" s="66"/>
+      <c r="A117" s="66"/>
+      <c r="B117" s="68"/>
       <c r="C117" s="42">
         <v>911</v>
       </c>
@@ -3997,8 +3997,8 @@
       <c r="F117" s="69"/>
     </row>
     <row r="118" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="63"/>
-      <c r="B118" s="66"/>
+      <c r="A118" s="66"/>
+      <c r="B118" s="68"/>
       <c r="C118" s="42">
         <v>912</v>
       </c>
@@ -4009,8 +4009,8 @@
       <c r="F118" s="69"/>
     </row>
     <row r="119" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="63"/>
-      <c r="B119" s="66"/>
+      <c r="A119" s="66"/>
+      <c r="B119" s="68"/>
       <c r="C119" s="53">
         <v>915</v>
       </c>
@@ -4021,8 +4021,8 @@
       <c r="F119" s="69"/>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="63"/>
-      <c r="B120" s="66"/>
+      <c r="A120" s="66"/>
+      <c r="B120" s="68"/>
       <c r="C120" s="42">
         <v>916</v>
       </c>
@@ -4033,8 +4033,8 @@
       <c r="F120" s="69"/>
     </row>
     <row r="121" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="63"/>
-      <c r="B121" s="66"/>
+      <c r="A121" s="66"/>
+      <c r="B121" s="68"/>
       <c r="C121" s="42">
         <v>917</v>
       </c>
@@ -4045,8 +4045,8 @@
       <c r="F121" s="69"/>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="63"/>
-      <c r="B122" s="66"/>
+      <c r="A122" s="66"/>
+      <c r="B122" s="68"/>
       <c r="C122" s="42">
         <v>989</v>
       </c>
@@ -4057,8 +4057,8 @@
       <c r="F122" s="69"/>
     </row>
     <row r="123" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="63"/>
-      <c r="B123" s="66"/>
+      <c r="A123" s="66"/>
+      <c r="B123" s="68"/>
       <c r="C123" s="42">
         <v>990</v>
       </c>
@@ -4069,8 +4069,8 @@
       <c r="F123" s="69"/>
     </row>
     <row r="124" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="63"/>
-      <c r="B124" s="66"/>
+      <c r="A124" s="66"/>
+      <c r="B124" s="68"/>
       <c r="C124" s="42">
         <v>991</v>
       </c>
@@ -4081,8 +4081,8 @@
       <c r="F124" s="69"/>
     </row>
     <row r="125" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="63"/>
-      <c r="B125" s="66"/>
+      <c r="A125" s="66"/>
+      <c r="B125" s="68"/>
       <c r="C125" s="42">
         <v>992</v>
       </c>
@@ -4093,8 +4093,8 @@
       <c r="F125" s="69"/>
     </row>
     <row r="126" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="63"/>
-      <c r="B126" s="66"/>
+      <c r="A126" s="66"/>
+      <c r="B126" s="68"/>
       <c r="C126" s="42">
         <v>996</v>
       </c>
@@ -4105,8 +4105,8 @@
       <c r="F126" s="69"/>
     </row>
     <row r="127" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="63"/>
-      <c r="B127" s="66"/>
+      <c r="A127" s="66"/>
+      <c r="B127" s="68"/>
       <c r="C127" s="53">
         <v>1011</v>
       </c>
@@ -4117,8 +4117,8 @@
       <c r="F127" s="69"/>
     </row>
     <row r="128" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="63"/>
-      <c r="B128" s="66"/>
+      <c r="A128" s="66"/>
+      <c r="B128" s="68"/>
       <c r="C128" s="53">
         <v>1012</v>
       </c>
@@ -4129,8 +4129,8 @@
       <c r="F128" s="69"/>
     </row>
     <row r="129" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="63"/>
-      <c r="B129" s="66"/>
+      <c r="A129" s="66"/>
+      <c r="B129" s="68"/>
       <c r="C129" s="53">
         <v>1013</v>
       </c>
@@ -4141,8 +4141,8 @@
       <c r="F129" s="69"/>
     </row>
     <row r="130" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="63"/>
-      <c r="B130" s="66"/>
+      <c r="A130" s="66"/>
+      <c r="B130" s="68"/>
       <c r="C130" s="53">
         <v>1014</v>
       </c>
@@ -4153,8 +4153,8 @@
       <c r="F130" s="69"/>
     </row>
     <row r="131" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="63"/>
-      <c r="B131" s="66"/>
+      <c r="A131" s="66"/>
+      <c r="B131" s="68"/>
       <c r="C131" s="53">
         <v>1045</v>
       </c>
@@ -4165,8 +4165,8 @@
       <c r="F131" s="69"/>
     </row>
     <row r="132" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="63"/>
-      <c r="B132" s="66"/>
+      <c r="A132" s="66"/>
+      <c r="B132" s="68"/>
       <c r="C132" s="42">
         <v>1046</v>
       </c>
@@ -4177,8 +4177,8 @@
       <c r="F132" s="69"/>
     </row>
     <row r="133" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="63"/>
-      <c r="B133" s="66"/>
+      <c r="A133" s="66"/>
+      <c r="B133" s="68"/>
       <c r="C133" s="42">
         <v>1047</v>
       </c>
@@ -4189,8 +4189,8 @@
       <c r="F133" s="69"/>
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="63"/>
-      <c r="B134" s="66"/>
+      <c r="A134" s="66"/>
+      <c r="B134" s="68"/>
       <c r="C134" s="42">
         <v>1048</v>
       </c>
@@ -4201,22 +4201,22 @@
       <c r="F134" s="69"/>
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="64"/>
-      <c r="B135" s="67"/>
+      <c r="A135" s="67"/>
+      <c r="B135" s="60"/>
       <c r="C135" s="42">
         <v>1052</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E135" s="70"/>
-      <c r="F135" s="70"/>
+      <c r="E135" s="64"/>
+      <c r="F135" s="64"/>
     </row>
     <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="62" t="s">
+      <c r="A136" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="B136" s="65" t="s">
+      <c r="B136" s="59" t="s">
         <v>81</v>
       </c>
       <c r="C136" s="42">
@@ -4225,16 +4225,16 @@
       <c r="D136" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E136" s="68">
+      <c r="E136" s="63">
         <v>4</v>
       </c>
-      <c r="F136" s="68" t="s">
+      <c r="F136" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="63"/>
-      <c r="B137" s="66"/>
+      <c r="A137" s="66"/>
+      <c r="B137" s="68"/>
       <c r="C137" s="42">
         <v>880</v>
       </c>
@@ -4245,8 +4245,8 @@
       <c r="F137" s="69"/>
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="63"/>
-      <c r="B138" s="66"/>
+      <c r="A138" s="66"/>
+      <c r="B138" s="68"/>
       <c r="C138" s="42">
         <v>881</v>
       </c>
@@ -4257,8 +4257,8 @@
       <c r="F138" s="69"/>
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="63"/>
-      <c r="B139" s="66"/>
+      <c r="A139" s="66"/>
+      <c r="B139" s="68"/>
       <c r="C139" s="42">
         <v>882</v>
       </c>
@@ -4269,8 +4269,8 @@
       <c r="F139" s="69"/>
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="63"/>
-      <c r="B140" s="66"/>
+      <c r="A140" s="66"/>
+      <c r="B140" s="68"/>
       <c r="C140" s="42">
         <v>885</v>
       </c>
@@ -4281,8 +4281,8 @@
       <c r="F140" s="69"/>
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="63"/>
-      <c r="B141" s="66"/>
+      <c r="A141" s="66"/>
+      <c r="B141" s="68"/>
       <c r="C141" s="42">
         <v>886</v>
       </c>
@@ -4293,8 +4293,8 @@
       <c r="F141" s="69"/>
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="63"/>
-      <c r="B142" s="66"/>
+      <c r="A142" s="66"/>
+      <c r="B142" s="68"/>
       <c r="C142" s="42">
         <v>887</v>
       </c>
@@ -4305,8 +4305,8 @@
       <c r="F142" s="69"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="63"/>
-      <c r="B143" s="66"/>
+      <c r="A143" s="66"/>
+      <c r="B143" s="68"/>
       <c r="C143" s="42">
         <v>959</v>
       </c>
@@ -4317,8 +4317,8 @@
       <c r="F143" s="69"/>
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="63"/>
-      <c r="B144" s="66"/>
+      <c r="A144" s="66"/>
+      <c r="B144" s="68"/>
       <c r="C144" s="42">
         <v>960</v>
       </c>
@@ -4329,8 +4329,8 @@
       <c r="F144" s="69"/>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="63"/>
-      <c r="B145" s="66"/>
+      <c r="A145" s="66"/>
+      <c r="B145" s="68"/>
       <c r="C145" s="42">
         <v>961</v>
       </c>
@@ -4341,8 +4341,8 @@
       <c r="F145" s="69"/>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="63"/>
-      <c r="B146" s="66"/>
+      <c r="A146" s="66"/>
+      <c r="B146" s="68"/>
       <c r="C146" s="42">
         <v>962</v>
       </c>
@@ -4353,8 +4353,8 @@
       <c r="F146" s="69"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="63"/>
-      <c r="B147" s="66"/>
+      <c r="A147" s="66"/>
+      <c r="B147" s="68"/>
       <c r="C147" s="42">
         <v>966</v>
       </c>
@@ -4365,8 +4365,8 @@
       <c r="F147" s="69"/>
     </row>
     <row r="148" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="63"/>
-      <c r="B148" s="66"/>
+      <c r="A148" s="66"/>
+      <c r="B148" s="68"/>
       <c r="C148" s="53">
         <v>999</v>
       </c>
@@ -4377,8 +4377,8 @@
       <c r="F148" s="69"/>
     </row>
     <row r="149" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="63"/>
-      <c r="B149" s="66"/>
+      <c r="A149" s="66"/>
+      <c r="B149" s="68"/>
       <c r="C149" s="53">
         <v>1000</v>
       </c>
@@ -4389,8 +4389,8 @@
       <c r="F149" s="69"/>
     </row>
     <row r="150" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="63"/>
-      <c r="B150" s="66"/>
+      <c r="A150" s="66"/>
+      <c r="B150" s="68"/>
       <c r="C150" s="53">
         <v>1001</v>
       </c>
@@ -4401,8 +4401,8 @@
       <c r="F150" s="69"/>
     </row>
     <row r="151" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="63"/>
-      <c r="B151" s="66"/>
+      <c r="A151" s="66"/>
+      <c r="B151" s="68"/>
       <c r="C151" s="53">
         <v>1002</v>
       </c>
@@ -4413,8 +4413,8 @@
       <c r="F151" s="69"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="63"/>
-      <c r="B152" s="66"/>
+      <c r="A152" s="66"/>
+      <c r="B152" s="68"/>
       <c r="C152" s="42">
         <v>1015</v>
       </c>
@@ -4425,8 +4425,8 @@
       <c r="F152" s="69"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="63"/>
-      <c r="B153" s="66"/>
+      <c r="A153" s="66"/>
+      <c r="B153" s="68"/>
       <c r="C153" s="42">
         <v>1016</v>
       </c>
@@ -4437,8 +4437,8 @@
       <c r="F153" s="69"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="63"/>
-      <c r="B154" s="66"/>
+      <c r="A154" s="66"/>
+      <c r="B154" s="68"/>
       <c r="C154" s="53">
         <v>1017</v>
       </c>
@@ -4449,8 +4449,8 @@
       <c r="F154" s="69"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="63"/>
-      <c r="B155" s="66"/>
+      <c r="A155" s="66"/>
+      <c r="B155" s="68"/>
       <c r="C155" s="42">
         <v>1018</v>
       </c>
@@ -4461,22 +4461,22 @@
       <c r="F155" s="69"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="64"/>
-      <c r="B156" s="67"/>
+      <c r="A156" s="67"/>
+      <c r="B156" s="60"/>
       <c r="C156" s="42">
         <v>1022</v>
       </c>
       <c r="D156" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E156" s="70"/>
-      <c r="F156" s="70"/>
+      <c r="E156" s="64"/>
+      <c r="F156" s="64"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="62" t="s">
+      <c r="A157" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="B157" s="65" t="s">
+      <c r="B157" s="59" t="s">
         <v>82</v>
       </c>
       <c r="C157" s="42">
@@ -4485,16 +4485,16 @@
       <c r="D157" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E157" s="68">
+      <c r="E157" s="63">
         <v>4</v>
       </c>
-      <c r="F157" s="68" t="s">
+      <c r="F157" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="63"/>
-      <c r="B158" s="66"/>
+      <c r="A158" s="66"/>
+      <c r="B158" s="68"/>
       <c r="C158" s="42">
         <v>890</v>
       </c>
@@ -4505,8 +4505,8 @@
       <c r="F158" s="69"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="63"/>
-      <c r="B159" s="66"/>
+      <c r="A159" s="66"/>
+      <c r="B159" s="68"/>
       <c r="C159" s="42">
         <v>891</v>
       </c>
@@ -4517,8 +4517,8 @@
       <c r="F159" s="69"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="63"/>
-      <c r="B160" s="66"/>
+      <c r="A160" s="66"/>
+      <c r="B160" s="68"/>
       <c r="C160" s="42">
         <v>892</v>
       </c>
@@ -4529,8 +4529,8 @@
       <c r="F160" s="69"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="63"/>
-      <c r="B161" s="66"/>
+      <c r="A161" s="66"/>
+      <c r="B161" s="68"/>
       <c r="C161" s="42">
         <v>895</v>
       </c>
@@ -4541,8 +4541,8 @@
       <c r="F161" s="69"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="63"/>
-      <c r="B162" s="66"/>
+      <c r="A162" s="66"/>
+      <c r="B162" s="68"/>
       <c r="C162" s="42">
         <v>896</v>
       </c>
@@ -4553,8 +4553,8 @@
       <c r="F162" s="69"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="63"/>
-      <c r="B163" s="66"/>
+      <c r="A163" s="66"/>
+      <c r="B163" s="68"/>
       <c r="C163" s="42">
         <v>897</v>
       </c>
@@ -4565,8 +4565,8 @@
       <c r="F163" s="69"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="63"/>
-      <c r="B164" s="66"/>
+      <c r="A164" s="66"/>
+      <c r="B164" s="68"/>
       <c r="C164" s="42">
         <v>969</v>
       </c>
@@ -4577,8 +4577,8 @@
       <c r="F164" s="69"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="63"/>
-      <c r="B165" s="66"/>
+      <c r="A165" s="66"/>
+      <c r="B165" s="68"/>
       <c r="C165" s="42">
         <v>970</v>
       </c>
@@ -4589,8 +4589,8 @@
       <c r="F165" s="69"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="63"/>
-      <c r="B166" s="66"/>
+      <c r="A166" s="66"/>
+      <c r="B166" s="68"/>
       <c r="C166" s="42">
         <v>971</v>
       </c>
@@ -4601,8 +4601,8 @@
       <c r="F166" s="69"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="63"/>
-      <c r="B167" s="66"/>
+      <c r="A167" s="66"/>
+      <c r="B167" s="68"/>
       <c r="C167" s="42">
         <v>972</v>
       </c>
@@ -4613,8 +4613,8 @@
       <c r="F167" s="69"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="63"/>
-      <c r="B168" s="66"/>
+      <c r="A168" s="66"/>
+      <c r="B168" s="68"/>
       <c r="C168" s="42">
         <v>976</v>
       </c>
@@ -4625,8 +4625,8 @@
       <c r="F168" s="69"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="63"/>
-      <c r="B169" s="66"/>
+      <c r="A169" s="66"/>
+      <c r="B169" s="68"/>
       <c r="C169" s="42">
         <v>1003</v>
       </c>
@@ -4637,8 +4637,8 @@
       <c r="F169" s="69"/>
     </row>
     <row r="170" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="63"/>
-      <c r="B170" s="66"/>
+      <c r="A170" s="66"/>
+      <c r="B170" s="68"/>
       <c r="C170" s="53">
         <v>1004</v>
       </c>
@@ -4649,8 +4649,8 @@
       <c r="F170" s="69"/>
     </row>
     <row r="171" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="63"/>
-      <c r="B171" s="66"/>
+      <c r="A171" s="66"/>
+      <c r="B171" s="68"/>
       <c r="C171" s="53">
         <v>1005</v>
       </c>
@@ -4661,8 +4661,8 @@
       <c r="F171" s="69"/>
     </row>
     <row r="172" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="63"/>
-      <c r="B172" s="66"/>
+      <c r="A172" s="66"/>
+      <c r="B172" s="68"/>
       <c r="C172" s="53">
         <v>1006</v>
       </c>
@@ -4673,8 +4673,8 @@
       <c r="F172" s="69"/>
     </row>
     <row r="173" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="63"/>
-      <c r="B173" s="66"/>
+      <c r="A173" s="66"/>
+      <c r="B173" s="68"/>
       <c r="C173" s="53">
         <v>1025</v>
       </c>
@@ -4685,8 +4685,8 @@
       <c r="F173" s="69"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="63"/>
-      <c r="B174" s="66"/>
+      <c r="A174" s="66"/>
+      <c r="B174" s="68"/>
       <c r="C174" s="42">
         <v>1026</v>
       </c>
@@ -4697,8 +4697,8 @@
       <c r="F174" s="69"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="63"/>
-      <c r="B175" s="66"/>
+      <c r="A175" s="66"/>
+      <c r="B175" s="68"/>
       <c r="C175" s="42">
         <v>1027</v>
       </c>
@@ -4709,8 +4709,8 @@
       <c r="F175" s="69"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="63"/>
-      <c r="B176" s="66"/>
+      <c r="A176" s="66"/>
+      <c r="B176" s="68"/>
       <c r="C176" s="42">
         <v>1028</v>
       </c>
@@ -4721,22 +4721,22 @@
       <c r="F176" s="69"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="64"/>
-      <c r="B177" s="67"/>
+      <c r="A177" s="67"/>
+      <c r="B177" s="60"/>
       <c r="C177" s="42">
         <v>1032</v>
       </c>
       <c r="D177" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E177" s="70"/>
-      <c r="F177" s="70"/>
+      <c r="E177" s="64"/>
+      <c r="F177" s="64"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="83" t="s">
+      <c r="A178" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B178" s="75" t="s">
+      <c r="B178" s="71" t="s">
         <v>83</v>
       </c>
       <c r="C178" s="42">
@@ -4745,16 +4745,16 @@
       <c r="D178" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E178" s="68">
+      <c r="E178" s="63">
         <v>4</v>
       </c>
-      <c r="F178" s="68" t="s">
+      <c r="F178" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="76"/>
-      <c r="B179" s="93"/>
+      <c r="A179" s="75"/>
+      <c r="B179" s="72"/>
       <c r="C179" s="42">
         <v>900</v>
       </c>
@@ -4765,8 +4765,8 @@
       <c r="F179" s="69"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="76"/>
-      <c r="B180" s="93"/>
+      <c r="A180" s="75"/>
+      <c r="B180" s="72"/>
       <c r="C180" s="42">
         <v>901</v>
       </c>
@@ -4777,8 +4777,8 @@
       <c r="F180" s="69"/>
     </row>
     <row r="181" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="76"/>
-      <c r="B181" s="93"/>
+      <c r="A181" s="75"/>
+      <c r="B181" s="72"/>
       <c r="C181" s="42">
         <v>902</v>
       </c>
@@ -4789,8 +4789,8 @@
       <c r="F181" s="69"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="76"/>
-      <c r="B182" s="93"/>
+      <c r="A182" s="75"/>
+      <c r="B182" s="72"/>
       <c r="C182" s="42">
         <v>905</v>
       </c>
@@ -4801,8 +4801,8 @@
       <c r="F182" s="69"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="76"/>
-      <c r="B183" s="93"/>
+      <c r="A183" s="75"/>
+      <c r="B183" s="72"/>
       <c r="C183" s="42">
         <v>906</v>
       </c>
@@ -4813,8 +4813,8 @@
       <c r="F183" s="69"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="76"/>
-      <c r="B184" s="93"/>
+      <c r="A184" s="75"/>
+      <c r="B184" s="72"/>
       <c r="C184" s="42">
         <v>907</v>
       </c>
@@ -4825,8 +4825,8 @@
       <c r="F184" s="69"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="76"/>
-      <c r="B185" s="93"/>
+      <c r="A185" s="75"/>
+      <c r="B185" s="72"/>
       <c r="C185" s="42">
         <v>979</v>
       </c>
@@ -4837,8 +4837,8 @@
       <c r="F185" s="69"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="76"/>
-      <c r="B186" s="93"/>
+      <c r="A186" s="75"/>
+      <c r="B186" s="72"/>
       <c r="C186" s="42">
         <v>980</v>
       </c>
@@ -4849,8 +4849,8 @@
       <c r="F186" s="69"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="76"/>
-      <c r="B187" s="93"/>
+      <c r="A187" s="75"/>
+      <c r="B187" s="72"/>
       <c r="C187" s="42">
         <v>981</v>
       </c>
@@ -4861,8 +4861,8 @@
       <c r="F187" s="69"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="76"/>
-      <c r="B188" s="93"/>
+      <c r="A188" s="75"/>
+      <c r="B188" s="72"/>
       <c r="C188" s="42">
         <v>982</v>
       </c>
@@ -4873,8 +4873,8 @@
       <c r="F188" s="69"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="76"/>
-      <c r="B189" s="93"/>
+      <c r="A189" s="75"/>
+      <c r="B189" s="72"/>
       <c r="C189" s="42">
         <v>986</v>
       </c>
@@ -4885,8 +4885,8 @@
       <c r="F189" s="69"/>
     </row>
     <row r="190" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="76"/>
-      <c r="B190" s="93"/>
+      <c r="A190" s="75"/>
+      <c r="B190" s="72"/>
       <c r="C190" s="53">
         <v>1007</v>
       </c>
@@ -4897,8 +4897,8 @@
       <c r="F190" s="69"/>
     </row>
     <row r="191" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="76"/>
-      <c r="B191" s="93"/>
+      <c r="A191" s="75"/>
+      <c r="B191" s="72"/>
       <c r="C191" s="53">
         <v>1008</v>
       </c>
@@ -4909,8 +4909,8 @@
       <c r="F191" s="69"/>
     </row>
     <row r="192" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="76"/>
-      <c r="B192" s="93"/>
+      <c r="A192" s="75"/>
+      <c r="B192" s="72"/>
       <c r="C192" s="53">
         <v>1009</v>
       </c>
@@ -4921,8 +4921,8 @@
       <c r="F192" s="69"/>
     </row>
     <row r="193" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="76"/>
-      <c r="B193" s="93"/>
+      <c r="A193" s="75"/>
+      <c r="B193" s="72"/>
       <c r="C193" s="53">
         <v>1010</v>
       </c>
@@ -4933,8 +4933,8 @@
       <c r="F193" s="69"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="76"/>
-      <c r="B194" s="93"/>
+      <c r="A194" s="75"/>
+      <c r="B194" s="72"/>
       <c r="C194" s="42">
         <v>1035</v>
       </c>
@@ -4945,8 +4945,8 @@
       <c r="F194" s="69"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="76"/>
-      <c r="B195" s="93"/>
+      <c r="A195" s="75"/>
+      <c r="B195" s="72"/>
       <c r="C195" s="42">
         <v>1036</v>
       </c>
@@ -4957,8 +4957,8 @@
       <c r="F195" s="69"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="76"/>
-      <c r="B196" s="93"/>
+      <c r="A196" s="75"/>
+      <c r="B196" s="72"/>
       <c r="C196" s="42">
         <v>1037</v>
       </c>
@@ -4969,8 +4969,8 @@
       <c r="F196" s="69"/>
     </row>
     <row r="197" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="76"/>
-      <c r="B197" s="93"/>
+      <c r="A197" s="75"/>
+      <c r="B197" s="72"/>
       <c r="C197" s="42">
         <v>1038</v>
       </c>
@@ -4981,16 +4981,16 @@
       <c r="F197" s="69"/>
     </row>
     <row r="198" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="77"/>
-      <c r="B198" s="94"/>
+      <c r="A198" s="76"/>
+      <c r="B198" s="73"/>
       <c r="C198" s="42">
         <v>1042</v>
       </c>
       <c r="D198" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E198" s="70"/>
-      <c r="F198" s="70"/>
+      <c r="E198" s="64"/>
+      <c r="F198" s="64"/>
     </row>
     <row r="199" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="22" t="s">
@@ -5129,10 +5129,10 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="59" t="s">
+      <c r="A207" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B207" s="60" t="s">
+      <c r="B207" s="78" t="s">
         <v>261</v>
       </c>
       <c r="C207" s="8">
@@ -5141,24 +5141,24 @@
       <c r="D207" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E207" s="61">
+      <c r="E207" s="79">
         <v>1</v>
       </c>
-      <c r="F207" s="61" t="s">
+      <c r="F207" s="79" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="59"/>
-      <c r="B208" s="60"/>
+      <c r="A208" s="77"/>
+      <c r="B208" s="78"/>
       <c r="C208" s="8">
         <v>1</v>
       </c>
       <c r="D208" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E208" s="61"/>
-      <c r="F208" s="61"/>
+      <c r="E208" s="79"/>
+      <c r="F208" s="79"/>
     </row>
     <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="22" t="s">
@@ -5225,20 +5225,20 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="71" t="s">
+      <c r="A213" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="B213" s="72"/>
-      <c r="C213" s="72"/>
-      <c r="D213" s="72"/>
-      <c r="E213" s="72"/>
-      <c r="F213" s="73"/>
+      <c r="B213" s="93"/>
+      <c r="C213" s="93"/>
+      <c r="D213" s="93"/>
+      <c r="E213" s="93"/>
+      <c r="F213" s="94"/>
     </row>
     <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="83" t="s">
+      <c r="A214" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B214" s="75" t="s">
+      <c r="B214" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C214" s="36">
@@ -5247,16 +5247,16 @@
       <c r="D214" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="E214" s="68">
+      <c r="E214" s="63">
         <v>1</v>
       </c>
-      <c r="F214" s="68" t="s">
+      <c r="F214" s="63" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="76"/>
-      <c r="B215" s="93"/>
+      <c r="A215" s="75"/>
+      <c r="B215" s="72"/>
       <c r="C215" s="36">
         <v>2</v>
       </c>
@@ -5267,8 +5267,8 @@
       <c r="F215" s="69"/>
     </row>
     <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="76"/>
-      <c r="B216" s="93"/>
+      <c r="A216" s="75"/>
+      <c r="B216" s="72"/>
       <c r="C216" s="36">
         <v>3</v>
       </c>
@@ -5279,8 +5279,8 @@
       <c r="F216" s="69"/>
     </row>
     <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="76"/>
-      <c r="B217" s="93"/>
+      <c r="A217" s="75"/>
+      <c r="B217" s="72"/>
       <c r="C217" s="36">
         <v>4</v>
       </c>
@@ -5291,8 +5291,8 @@
       <c r="F217" s="69"/>
     </row>
     <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="76"/>
-      <c r="B218" s="93"/>
+      <c r="A218" s="75"/>
+      <c r="B218" s="72"/>
       <c r="C218" s="36">
         <v>6</v>
       </c>
@@ -5303,8 +5303,8 @@
       <c r="F218" s="69"/>
     </row>
     <row r="219" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="76"/>
-      <c r="B219" s="93"/>
+      <c r="A219" s="75"/>
+      <c r="B219" s="72"/>
       <c r="C219" s="36">
         <v>7</v>
       </c>
@@ -5315,8 +5315,8 @@
       <c r="F219" s="69"/>
     </row>
     <row r="220" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="76"/>
-      <c r="B220" s="93"/>
+      <c r="A220" s="75"/>
+      <c r="B220" s="72"/>
       <c r="C220" s="36">
         <v>8</v>
       </c>
@@ -5327,8 +5327,8 @@
       <c r="F220" s="69"/>
     </row>
     <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="76"/>
-      <c r="B221" s="93"/>
+      <c r="A221" s="75"/>
+      <c r="B221" s="72"/>
       <c r="C221" s="36">
         <v>9</v>
       </c>
@@ -5435,20 +5435,20 @@
       </c>
     </row>
     <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="71" t="s">
+      <c r="A228" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="B228" s="72"/>
-      <c r="C228" s="72"/>
-      <c r="D228" s="72"/>
-      <c r="E228" s="72"/>
-      <c r="F228" s="73"/>
+      <c r="B228" s="93"/>
+      <c r="C228" s="93"/>
+      <c r="D228" s="93"/>
+      <c r="E228" s="93"/>
+      <c r="F228" s="94"/>
     </row>
     <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="59" t="s">
+      <c r="A229" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="B229" s="60" t="s">
+      <c r="B229" s="78" t="s">
         <v>150</v>
       </c>
       <c r="C229" s="18" t="s">
@@ -5457,102 +5457,102 @@
       <c r="D229" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E229" s="61">
+      <c r="E229" s="79">
         <v>1</v>
       </c>
-      <c r="F229" s="61" t="s">
+      <c r="F229" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="59"/>
-      <c r="B230" s="60"/>
+      <c r="A230" s="77"/>
+      <c r="B230" s="78"/>
       <c r="C230" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D230" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="E230" s="61"/>
-      <c r="F230" s="61"/>
+      <c r="E230" s="79"/>
+      <c r="F230" s="79"/>
     </row>
     <row r="231" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="59"/>
-      <c r="B231" s="60"/>
+      <c r="A231" s="77"/>
+      <c r="B231" s="78"/>
       <c r="C231" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D231" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="E231" s="61"/>
-      <c r="F231" s="61"/>
+      <c r="E231" s="79"/>
+      <c r="F231" s="79"/>
     </row>
     <row r="232" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="59"/>
-      <c r="B232" s="60"/>
+      <c r="A232" s="77"/>
+      <c r="B232" s="78"/>
       <c r="C232" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D232" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E232" s="61"/>
-      <c r="F232" s="61"/>
+      <c r="E232" s="79"/>
+      <c r="F232" s="79"/>
     </row>
     <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="59"/>
-      <c r="B233" s="60"/>
+      <c r="A233" s="77"/>
+      <c r="B233" s="78"/>
       <c r="C233" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D233" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="E233" s="61"/>
-      <c r="F233" s="61"/>
+      <c r="E233" s="79"/>
+      <c r="F233" s="79"/>
     </row>
     <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="59"/>
-      <c r="B234" s="60"/>
+      <c r="A234" s="77"/>
+      <c r="B234" s="78"/>
       <c r="C234" s="18" t="s">
         <v>96</v>
       </c>
       <c r="D234" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E234" s="61"/>
-      <c r="F234" s="61"/>
+      <c r="E234" s="79"/>
+      <c r="F234" s="79"/>
     </row>
     <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="59"/>
-      <c r="B235" s="60"/>
+      <c r="A235" s="77"/>
+      <c r="B235" s="78"/>
       <c r="C235" s="18" t="s">
         <v>99</v>
       </c>
       <c r="D235" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="E235" s="61"/>
-      <c r="F235" s="61"/>
+      <c r="E235" s="79"/>
+      <c r="F235" s="79"/>
     </row>
     <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="59"/>
-      <c r="B236" s="60"/>
+      <c r="A236" s="77"/>
+      <c r="B236" s="78"/>
       <c r="C236" s="18" t="s">
         <v>94</v>
       </c>
       <c r="D236" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E236" s="61"/>
-      <c r="F236" s="61"/>
+      <c r="E236" s="79"/>
+      <c r="F236" s="79"/>
     </row>
     <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="59" t="s">
+      <c r="A237" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B237" s="60" t="s">
+      <c r="B237" s="78" t="s">
         <v>159</v>
       </c>
       <c r="C237" s="18" t="s">
@@ -5561,102 +5561,102 @@
       <c r="D237" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E237" s="61">
+      <c r="E237" s="79">
         <v>1</v>
       </c>
-      <c r="F237" s="61" t="s">
+      <c r="F237" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="59"/>
-      <c r="B238" s="60"/>
+      <c r="A238" s="77"/>
+      <c r="B238" s="78"/>
       <c r="C238" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D238" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="E238" s="61"/>
-      <c r="F238" s="61"/>
+      <c r="E238" s="79"/>
+      <c r="F238" s="79"/>
     </row>
     <row r="239" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="59"/>
-      <c r="B239" s="60"/>
+      <c r="A239" s="77"/>
+      <c r="B239" s="78"/>
       <c r="C239" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D239" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="E239" s="61"/>
-      <c r="F239" s="61"/>
+      <c r="E239" s="79"/>
+      <c r="F239" s="79"/>
     </row>
     <row r="240" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="59"/>
-      <c r="B240" s="60"/>
+      <c r="A240" s="77"/>
+      <c r="B240" s="78"/>
       <c r="C240" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D240" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E240" s="61"/>
-      <c r="F240" s="61"/>
+      <c r="E240" s="79"/>
+      <c r="F240" s="79"/>
     </row>
     <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="59"/>
-      <c r="B241" s="60"/>
+      <c r="A241" s="77"/>
+      <c r="B241" s="78"/>
       <c r="C241" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D241" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="E241" s="61"/>
-      <c r="F241" s="61"/>
+      <c r="E241" s="79"/>
+      <c r="F241" s="79"/>
     </row>
     <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="59"/>
-      <c r="B242" s="60"/>
+      <c r="A242" s="77"/>
+      <c r="B242" s="78"/>
       <c r="C242" s="18" t="s">
         <v>96</v>
       </c>
       <c r="D242" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E242" s="61"/>
-      <c r="F242" s="61"/>
+      <c r="E242" s="79"/>
+      <c r="F242" s="79"/>
     </row>
     <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="59"/>
-      <c r="B243" s="60"/>
+      <c r="A243" s="77"/>
+      <c r="B243" s="78"/>
       <c r="C243" s="18" t="s">
         <v>99</v>
       </c>
       <c r="D243" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="E243" s="61"/>
-      <c r="F243" s="61"/>
+      <c r="E243" s="79"/>
+      <c r="F243" s="79"/>
     </row>
     <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="59"/>
-      <c r="B244" s="60"/>
+      <c r="A244" s="77"/>
+      <c r="B244" s="78"/>
       <c r="C244" s="18" t="s">
         <v>94</v>
       </c>
       <c r="D244" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E244" s="61"/>
-      <c r="F244" s="61"/>
+      <c r="E244" s="79"/>
+      <c r="F244" s="79"/>
     </row>
     <row r="245" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="59" t="s">
+      <c r="A245" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="B245" s="60" t="s">
+      <c r="B245" s="78" t="s">
         <v>160</v>
       </c>
       <c r="C245" s="18" t="s">
@@ -5665,78 +5665,78 @@
       <c r="D245" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E245" s="61">
+      <c r="E245" s="79">
         <v>1</v>
       </c>
-      <c r="F245" s="61" t="s">
+      <c r="F245" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="59"/>
-      <c r="B246" s="60"/>
+      <c r="A246" s="77"/>
+      <c r="B246" s="78"/>
       <c r="C246" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D246" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E246" s="61"/>
-      <c r="F246" s="61"/>
+      <c r="E246" s="79"/>
+      <c r="F246" s="79"/>
     </row>
     <row r="247" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="59"/>
-      <c r="B247" s="60"/>
+      <c r="A247" s="77"/>
+      <c r="B247" s="78"/>
       <c r="C247" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D247" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E247" s="61"/>
-      <c r="F247" s="61"/>
+      <c r="E247" s="79"/>
+      <c r="F247" s="79"/>
     </row>
     <row r="248" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="59"/>
-      <c r="B248" s="60"/>
+      <c r="A248" s="77"/>
+      <c r="B248" s="78"/>
       <c r="C248" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D248" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E248" s="61"/>
-      <c r="F248" s="61"/>
+      <c r="E248" s="79"/>
+      <c r="F248" s="79"/>
     </row>
     <row r="249" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="59"/>
-      <c r="B249" s="60"/>
+      <c r="A249" s="77"/>
+      <c r="B249" s="78"/>
       <c r="C249" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D249" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E249" s="61"/>
-      <c r="F249" s="61"/>
+      <c r="E249" s="79"/>
+      <c r="F249" s="79"/>
     </row>
     <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="59"/>
-      <c r="B250" s="60"/>
+      <c r="A250" s="77"/>
+      <c r="B250" s="78"/>
       <c r="C250" s="18" t="s">
         <v>96</v>
       </c>
       <c r="D250" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E250" s="61"/>
-      <c r="F250" s="61"/>
+      <c r="E250" s="79"/>
+      <c r="F250" s="79"/>
     </row>
     <row r="251" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="59" t="s">
+      <c r="A251" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="B251" s="60" t="s">
+      <c r="B251" s="78" t="s">
         <v>258</v>
       </c>
       <c r="C251" s="27" t="s">
@@ -5745,78 +5745,78 @@
       <c r="D251" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E251" s="61">
+      <c r="E251" s="79">
         <v>2</v>
       </c>
-      <c r="F251" s="61" t="s">
+      <c r="F251" s="79" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="59"/>
-      <c r="B252" s="60"/>
+      <c r="A252" s="77"/>
+      <c r="B252" s="78"/>
       <c r="C252" s="27" t="s">
         <v>88</v>
       </c>
       <c r="D252" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="E252" s="61"/>
-      <c r="F252" s="61"/>
+      <c r="E252" s="79"/>
+      <c r="F252" s="79"/>
     </row>
     <row r="253" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="59"/>
-      <c r="B253" s="60"/>
+      <c r="A253" s="77"/>
+      <c r="B253" s="78"/>
       <c r="C253" s="27" t="s">
         <v>95</v>
       </c>
       <c r="D253" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="E253" s="61"/>
-      <c r="F253" s="61"/>
+      <c r="E253" s="79"/>
+      <c r="F253" s="79"/>
     </row>
     <row r="254" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="59"/>
-      <c r="B254" s="60"/>
+      <c r="A254" s="77"/>
+      <c r="B254" s="78"/>
       <c r="C254" s="27" t="s">
         <v>97</v>
       </c>
       <c r="D254" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="E254" s="61"/>
-      <c r="F254" s="61"/>
+      <c r="E254" s="79"/>
+      <c r="F254" s="79"/>
     </row>
     <row r="255" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="59"/>
-      <c r="B255" s="60"/>
+      <c r="A255" s="77"/>
+      <c r="B255" s="78"/>
       <c r="C255" s="27" t="s">
         <v>98</v>
       </c>
       <c r="D255" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="E255" s="61"/>
-      <c r="F255" s="61"/>
+      <c r="E255" s="79"/>
+      <c r="F255" s="79"/>
     </row>
     <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="59"/>
-      <c r="B256" s="60"/>
+      <c r="A256" s="77"/>
+      <c r="B256" s="78"/>
       <c r="C256" s="27" t="s">
         <v>96</v>
       </c>
       <c r="D256" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="E256" s="61"/>
-      <c r="F256" s="61"/>
+      <c r="E256" s="79"/>
+      <c r="F256" s="79"/>
     </row>
     <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="59" t="s">
+      <c r="A257" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B257" s="60" t="s">
+      <c r="B257" s="78" t="s">
         <v>169</v>
       </c>
       <c r="C257" s="20">
@@ -5825,246 +5825,246 @@
       <c r="D257" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="E257" s="61">
+      <c r="E257" s="79">
         <v>2</v>
       </c>
-      <c r="F257" s="61" t="s">
+      <c r="F257" s="79" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="59"/>
-      <c r="B258" s="60"/>
+      <c r="A258" s="77"/>
+      <c r="B258" s="78"/>
       <c r="C258" s="20">
         <v>2</v>
       </c>
       <c r="D258" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E258" s="61"/>
-      <c r="F258" s="61"/>
+      <c r="E258" s="79"/>
+      <c r="F258" s="79"/>
     </row>
     <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="59"/>
-      <c r="B259" s="60"/>
+      <c r="A259" s="77"/>
+      <c r="B259" s="78"/>
       <c r="C259" s="20">
         <v>3</v>
       </c>
       <c r="D259" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E259" s="61"/>
-      <c r="F259" s="61"/>
+      <c r="E259" s="79"/>
+      <c r="F259" s="79"/>
     </row>
     <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="59"/>
-      <c r="B260" s="60"/>
+      <c r="A260" s="77"/>
+      <c r="B260" s="78"/>
       <c r="C260" s="20">
         <v>4</v>
       </c>
       <c r="D260" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E260" s="61"/>
-      <c r="F260" s="61"/>
+      <c r="E260" s="79"/>
+      <c r="F260" s="79"/>
     </row>
     <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="59"/>
-      <c r="B261" s="60"/>
+      <c r="A261" s="77"/>
+      <c r="B261" s="78"/>
       <c r="C261" s="20">
         <v>5</v>
       </c>
       <c r="D261" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="E261" s="61"/>
-      <c r="F261" s="61"/>
+      <c r="E261" s="79"/>
+      <c r="F261" s="79"/>
     </row>
     <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="59"/>
-      <c r="B262" s="60"/>
+      <c r="A262" s="77"/>
+      <c r="B262" s="78"/>
       <c r="C262" s="20">
         <v>6</v>
       </c>
       <c r="D262" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E262" s="61"/>
-      <c r="F262" s="61"/>
+      <c r="E262" s="79"/>
+      <c r="F262" s="79"/>
     </row>
     <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="59"/>
-      <c r="B263" s="60"/>
+      <c r="A263" s="77"/>
+      <c r="B263" s="78"/>
       <c r="C263" s="20">
         <v>7</v>
       </c>
       <c r="D263" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="E263" s="61"/>
-      <c r="F263" s="61"/>
+      <c r="E263" s="79"/>
+      <c r="F263" s="79"/>
     </row>
     <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="59"/>
-      <c r="B264" s="60"/>
+      <c r="A264" s="77"/>
+      <c r="B264" s="78"/>
       <c r="C264" s="20">
         <v>8</v>
       </c>
       <c r="D264" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E264" s="61"/>
-      <c r="F264" s="61"/>
+      <c r="E264" s="79"/>
+      <c r="F264" s="79"/>
     </row>
     <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="59"/>
-      <c r="B265" s="60"/>
+      <c r="A265" s="77"/>
+      <c r="B265" s="78"/>
       <c r="C265" s="20">
         <v>9</v>
       </c>
       <c r="D265" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E265" s="61"/>
-      <c r="F265" s="61"/>
+      <c r="E265" s="79"/>
+      <c r="F265" s="79"/>
     </row>
     <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="59"/>
-      <c r="B266" s="60"/>
+      <c r="A266" s="77"/>
+      <c r="B266" s="78"/>
       <c r="C266" s="20">
         <v>10</v>
       </c>
       <c r="D266" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E266" s="61"/>
-      <c r="F266" s="61"/>
+      <c r="E266" s="79"/>
+      <c r="F266" s="79"/>
     </row>
     <row r="267" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="59"/>
-      <c r="B267" s="60"/>
+      <c r="A267" s="77"/>
+      <c r="B267" s="78"/>
       <c r="C267" s="20">
         <v>11</v>
       </c>
       <c r="D267" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E267" s="61"/>
-      <c r="F267" s="61"/>
+      <c r="E267" s="79"/>
+      <c r="F267" s="79"/>
     </row>
     <row r="268" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="59"/>
-      <c r="B268" s="60"/>
+      <c r="A268" s="77"/>
+      <c r="B268" s="78"/>
       <c r="C268" s="20">
         <v>12</v>
       </c>
       <c r="D268" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E268" s="61"/>
-      <c r="F268" s="61"/>
+      <c r="E268" s="79"/>
+      <c r="F268" s="79"/>
     </row>
     <row r="269" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="59"/>
-      <c r="B269" s="60"/>
+      <c r="A269" s="77"/>
+      <c r="B269" s="78"/>
       <c r="C269" s="20">
         <v>13</v>
       </c>
       <c r="D269" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="E269" s="61"/>
-      <c r="F269" s="61"/>
+      <c r="E269" s="79"/>
+      <c r="F269" s="79"/>
     </row>
     <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="59"/>
-      <c r="B270" s="60"/>
+      <c r="A270" s="77"/>
+      <c r="B270" s="78"/>
       <c r="C270" s="20">
         <v>14</v>
       </c>
       <c r="D270" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="E270" s="61"/>
-      <c r="F270" s="61"/>
+      <c r="E270" s="79"/>
+      <c r="F270" s="79"/>
     </row>
     <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="59"/>
-      <c r="B271" s="60"/>
+      <c r="A271" s="77"/>
+      <c r="B271" s="78"/>
       <c r="C271" s="20">
         <v>15</v>
       </c>
       <c r="D271" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="E271" s="61"/>
-      <c r="F271" s="61"/>
+      <c r="E271" s="79"/>
+      <c r="F271" s="79"/>
     </row>
     <row r="272" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="59"/>
-      <c r="B272" s="60"/>
+      <c r="A272" s="77"/>
+      <c r="B272" s="78"/>
       <c r="C272" s="20">
         <v>16</v>
       </c>
       <c r="D272" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="E272" s="61"/>
-      <c r="F272" s="61"/>
+      <c r="E272" s="79"/>
+      <c r="F272" s="79"/>
     </row>
     <row r="273" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="59"/>
-      <c r="B273" s="60"/>
+      <c r="A273" s="77"/>
+      <c r="B273" s="78"/>
       <c r="C273" s="20">
         <v>17</v>
       </c>
       <c r="D273" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E273" s="61"/>
-      <c r="F273" s="61"/>
+      <c r="E273" s="79"/>
+      <c r="F273" s="79"/>
     </row>
     <row r="274" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="59"/>
-      <c r="B274" s="60"/>
+      <c r="A274" s="77"/>
+      <c r="B274" s="78"/>
       <c r="C274" s="20">
         <v>18</v>
       </c>
       <c r="D274" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="E274" s="61"/>
-      <c r="F274" s="61"/>
+      <c r="E274" s="79"/>
+      <c r="F274" s="79"/>
     </row>
     <row r="275" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="59"/>
-      <c r="B275" s="60"/>
+      <c r="A275" s="77"/>
+      <c r="B275" s="78"/>
       <c r="C275" s="20">
         <v>19</v>
       </c>
       <c r="D275" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="E275" s="61"/>
-      <c r="F275" s="61"/>
+      <c r="E275" s="79"/>
+      <c r="F275" s="79"/>
     </row>
     <row r="276" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="59"/>
-      <c r="B276" s="60"/>
+      <c r="A276" s="77"/>
+      <c r="B276" s="78"/>
       <c r="C276" s="20">
         <v>20</v>
       </c>
       <c r="D276" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="E276" s="61"/>
-      <c r="F276" s="61"/>
+      <c r="E276" s="79"/>
+      <c r="F276" s="79"/>
     </row>
     <row r="277" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="59" t="s">
+      <c r="A277" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B277" s="60" t="s">
+      <c r="B277" s="78" t="s">
         <v>189</v>
       </c>
       <c r="C277" s="43" t="s">
@@ -6073,210 +6073,210 @@
       <c r="D277" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="E277" s="61">
+      <c r="E277" s="79">
         <v>1</v>
       </c>
-      <c r="F277" s="61" t="s">
+      <c r="F277" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="59"/>
-      <c r="B278" s="60"/>
+      <c r="A278" s="77"/>
+      <c r="B278" s="78"/>
       <c r="C278" s="43" t="s">
         <v>88</v>
       </c>
       <c r="D278" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="E278" s="61"/>
-      <c r="F278" s="61"/>
+      <c r="E278" s="79"/>
+      <c r="F278" s="79"/>
     </row>
     <row r="279" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="59"/>
-      <c r="B279" s="60"/>
+      <c r="A279" s="77"/>
+      <c r="B279" s="78"/>
       <c r="C279" s="43" t="s">
         <v>95</v>
       </c>
       <c r="D279" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="E279" s="61"/>
-      <c r="F279" s="61"/>
+      <c r="E279" s="79"/>
+      <c r="F279" s="79"/>
     </row>
     <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="59"/>
-      <c r="B280" s="60"/>
+      <c r="A280" s="77"/>
+      <c r="B280" s="78"/>
       <c r="C280" s="43" t="s">
         <v>97</v>
       </c>
       <c r="D280" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="E280" s="61"/>
-      <c r="F280" s="61"/>
+      <c r="E280" s="79"/>
+      <c r="F280" s="79"/>
     </row>
     <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="59"/>
-      <c r="B281" s="60"/>
+      <c r="A281" s="77"/>
+      <c r="B281" s="78"/>
       <c r="C281" s="43" t="s">
         <v>98</v>
       </c>
       <c r="D281" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="E281" s="61"/>
-      <c r="F281" s="61"/>
+      <c r="E281" s="79"/>
+      <c r="F281" s="79"/>
     </row>
     <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="59"/>
-      <c r="B282" s="60"/>
+      <c r="A282" s="77"/>
+      <c r="B282" s="78"/>
       <c r="C282" s="43" t="s">
         <v>96</v>
       </c>
       <c r="D282" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="E282" s="61"/>
-      <c r="F282" s="61"/>
+      <c r="E282" s="79"/>
+      <c r="F282" s="79"/>
     </row>
     <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="59"/>
-      <c r="B283" s="60"/>
+      <c r="A283" s="77"/>
+      <c r="B283" s="78"/>
       <c r="C283" s="43" t="s">
         <v>99</v>
       </c>
       <c r="D283" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="E283" s="61"/>
-      <c r="F283" s="61"/>
+      <c r="E283" s="79"/>
+      <c r="F283" s="79"/>
     </row>
     <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="59"/>
-      <c r="B284" s="60"/>
+      <c r="A284" s="77"/>
+      <c r="B284" s="78"/>
       <c r="C284" s="43" t="s">
         <v>94</v>
       </c>
       <c r="D284" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="E284" s="61"/>
-      <c r="F284" s="61"/>
+      <c r="E284" s="79"/>
+      <c r="F284" s="79"/>
     </row>
     <row r="285" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="59"/>
-      <c r="B285" s="60"/>
+      <c r="A285" s="77"/>
+      <c r="B285" s="78"/>
       <c r="C285" s="43" t="s">
         <v>92</v>
       </c>
       <c r="D285" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E285" s="61"/>
-      <c r="F285" s="61"/>
+      <c r="E285" s="79"/>
+      <c r="F285" s="79"/>
     </row>
     <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="59"/>
-      <c r="B286" s="60"/>
+      <c r="A286" s="77"/>
+      <c r="B286" s="78"/>
       <c r="C286" s="43" t="s">
         <v>100</v>
       </c>
       <c r="D286" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="E286" s="61"/>
-      <c r="F286" s="61"/>
+      <c r="E286" s="79"/>
+      <c r="F286" s="79"/>
     </row>
     <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="59"/>
-      <c r="B287" s="60"/>
+      <c r="A287" s="77"/>
+      <c r="B287" s="78"/>
       <c r="C287" s="43" t="s">
         <v>101</v>
       </c>
       <c r="D287" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="E287" s="61"/>
-      <c r="F287" s="61"/>
+      <c r="E287" s="79"/>
+      <c r="F287" s="79"/>
     </row>
     <row r="288" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="59"/>
-      <c r="B288" s="60"/>
+      <c r="A288" s="77"/>
+      <c r="B288" s="78"/>
       <c r="C288" s="43" t="s">
         <v>102</v>
       </c>
       <c r="D288" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="E288" s="61"/>
-      <c r="F288" s="61"/>
+      <c r="E288" s="79"/>
+      <c r="F288" s="79"/>
     </row>
     <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="59"/>
-      <c r="B289" s="60"/>
+      <c r="A289" s="77"/>
+      <c r="B289" s="78"/>
       <c r="C289" s="43" t="s">
         <v>103</v>
       </c>
       <c r="D289" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="E289" s="61"/>
-      <c r="F289" s="61"/>
+      <c r="E289" s="79"/>
+      <c r="F289" s="79"/>
     </row>
     <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="59"/>
-      <c r="B290" s="60"/>
+      <c r="A290" s="77"/>
+      <c r="B290" s="78"/>
       <c r="C290" s="43" t="s">
         <v>90</v>
       </c>
       <c r="D290" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="E290" s="61"/>
-      <c r="F290" s="61"/>
+      <c r="E290" s="79"/>
+      <c r="F290" s="79"/>
     </row>
     <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="59"/>
-      <c r="B291" s="60"/>
+      <c r="A291" s="77"/>
+      <c r="B291" s="78"/>
       <c r="C291" s="43" t="s">
         <v>104</v>
       </c>
       <c r="D291" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="E291" s="61"/>
-      <c r="F291" s="61"/>
+      <c r="E291" s="79"/>
+      <c r="F291" s="79"/>
     </row>
     <row r="292" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="59"/>
-      <c r="B292" s="60"/>
+      <c r="A292" s="77"/>
+      <c r="B292" s="78"/>
       <c r="C292" s="43" t="s">
         <v>87</v>
       </c>
       <c r="D292" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="E292" s="61"/>
-      <c r="F292" s="61"/>
+      <c r="E292" s="79"/>
+      <c r="F292" s="79"/>
     </row>
     <row r="293" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="59"/>
-      <c r="B293" s="60"/>
+      <c r="A293" s="77"/>
+      <c r="B293" s="78"/>
       <c r="C293" s="43" t="s">
         <v>105</v>
       </c>
       <c r="D293" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="E293" s="61"/>
-      <c r="F293" s="61"/>
+      <c r="E293" s="79"/>
+      <c r="F293" s="79"/>
     </row>
     <row r="294" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="59" t="s">
+      <c r="A294" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B294" s="60" t="s">
+      <c r="B294" s="78" t="s">
         <v>190</v>
       </c>
       <c r="C294" s="18" t="s">
@@ -6285,54 +6285,54 @@
       <c r="D294" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E294" s="61">
+      <c r="E294" s="79">
         <v>1</v>
       </c>
-      <c r="F294" s="61" t="s">
+      <c r="F294" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="59"/>
-      <c r="B295" s="60"/>
+      <c r="A295" s="77"/>
+      <c r="B295" s="78"/>
       <c r="C295" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D295" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="E295" s="61"/>
-      <c r="F295" s="61"/>
+      <c r="E295" s="79"/>
+      <c r="F295" s="79"/>
     </row>
     <row r="296" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="59"/>
-      <c r="B296" s="60"/>
+      <c r="A296" s="77"/>
+      <c r="B296" s="78"/>
       <c r="C296" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D296" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="E296" s="61"/>
-      <c r="F296" s="61"/>
+      <c r="E296" s="79"/>
+      <c r="F296" s="79"/>
     </row>
     <row r="297" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="59"/>
-      <c r="B297" s="60"/>
+      <c r="A297" s="77"/>
+      <c r="B297" s="78"/>
       <c r="C297" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D297" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E297" s="61"/>
-      <c r="F297" s="61"/>
+      <c r="E297" s="79"/>
+      <c r="F297" s="79"/>
     </row>
     <row r="298" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="59" t="s">
+      <c r="A298" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="B298" s="60" t="s">
+      <c r="B298" s="78" t="s">
         <v>195</v>
       </c>
       <c r="C298" s="18" t="s">
@@ -6341,66 +6341,66 @@
       <c r="D298" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E298" s="61">
+      <c r="E298" s="79">
         <v>1</v>
       </c>
-      <c r="F298" s="61" t="s">
+      <c r="F298" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="59"/>
-      <c r="B299" s="60"/>
+      <c r="A299" s="77"/>
+      <c r="B299" s="78"/>
       <c r="C299" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D299" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="E299" s="61"/>
-      <c r="F299" s="61"/>
+      <c r="E299" s="79"/>
+      <c r="F299" s="79"/>
     </row>
     <row r="300" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="59"/>
-      <c r="B300" s="60"/>
+      <c r="A300" s="77"/>
+      <c r="B300" s="78"/>
       <c r="C300" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D300" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="E300" s="61"/>
-      <c r="F300" s="61"/>
+      <c r="E300" s="79"/>
+      <c r="F300" s="79"/>
     </row>
     <row r="301" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="59"/>
-      <c r="B301" s="60"/>
+      <c r="A301" s="77"/>
+      <c r="B301" s="78"/>
       <c r="C301" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D301" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E301" s="61"/>
-      <c r="F301" s="61"/>
+      <c r="E301" s="79"/>
+      <c r="F301" s="79"/>
     </row>
     <row r="302" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="59"/>
-      <c r="B302" s="60"/>
+      <c r="A302" s="77"/>
+      <c r="B302" s="78"/>
       <c r="C302" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D302" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E302" s="61"/>
-      <c r="F302" s="61"/>
+      <c r="E302" s="79"/>
+      <c r="F302" s="79"/>
     </row>
     <row r="303" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="59" t="s">
+      <c r="A303" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="B303" s="60" t="s">
+      <c r="B303" s="78" t="s">
         <v>200</v>
       </c>
       <c r="C303" s="18" t="s">
@@ -6409,66 +6409,66 @@
       <c r="D303" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E303" s="61">
+      <c r="E303" s="79">
         <v>1</v>
       </c>
-      <c r="F303" s="61" t="s">
+      <c r="F303" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="59"/>
-      <c r="B304" s="60"/>
+      <c r="A304" s="77"/>
+      <c r="B304" s="78"/>
       <c r="C304" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D304" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="E304" s="61"/>
-      <c r="F304" s="61"/>
+      <c r="E304" s="79"/>
+      <c r="F304" s="79"/>
     </row>
     <row r="305" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="59"/>
-      <c r="B305" s="60"/>
+      <c r="A305" s="77"/>
+      <c r="B305" s="78"/>
       <c r="C305" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D305" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="E305" s="61"/>
-      <c r="F305" s="61"/>
+      <c r="E305" s="79"/>
+      <c r="F305" s="79"/>
     </row>
     <row r="306" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="59"/>
-      <c r="B306" s="60"/>
+      <c r="A306" s="77"/>
+      <c r="B306" s="78"/>
       <c r="C306" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D306" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E306" s="61"/>
-      <c r="F306" s="61"/>
+      <c r="E306" s="79"/>
+      <c r="F306" s="79"/>
     </row>
     <row r="307" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="59"/>
-      <c r="B307" s="60"/>
+      <c r="A307" s="77"/>
+      <c r="B307" s="78"/>
       <c r="C307" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D307" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E307" s="61"/>
-      <c r="F307" s="61"/>
+      <c r="E307" s="79"/>
+      <c r="F307" s="79"/>
     </row>
     <row r="308" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="59" t="s">
+      <c r="A308" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="B308" s="60" t="s">
+      <c r="B308" s="78" t="s">
         <v>201</v>
       </c>
       <c r="C308" s="18" t="s">
@@ -6477,66 +6477,66 @@
       <c r="D308" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E308" s="61">
+      <c r="E308" s="79">
         <v>1</v>
       </c>
-      <c r="F308" s="61" t="s">
+      <c r="F308" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="59"/>
-      <c r="B309" s="60"/>
+      <c r="A309" s="77"/>
+      <c r="B309" s="78"/>
       <c r="C309" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D309" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="E309" s="61"/>
-      <c r="F309" s="61"/>
+      <c r="E309" s="79"/>
+      <c r="F309" s="79"/>
     </row>
     <row r="310" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="59"/>
-      <c r="B310" s="60"/>
+      <c r="A310" s="77"/>
+      <c r="B310" s="78"/>
       <c r="C310" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D310" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="E310" s="61"/>
-      <c r="F310" s="61"/>
+      <c r="E310" s="79"/>
+      <c r="F310" s="79"/>
     </row>
     <row r="311" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="59"/>
-      <c r="B311" s="60"/>
+      <c r="A311" s="77"/>
+      <c r="B311" s="78"/>
       <c r="C311" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D311" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E311" s="61"/>
-      <c r="F311" s="61"/>
+      <c r="E311" s="79"/>
+      <c r="F311" s="79"/>
     </row>
     <row r="312" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="59"/>
-      <c r="B312" s="60"/>
+      <c r="A312" s="77"/>
+      <c r="B312" s="78"/>
       <c r="C312" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D312" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E312" s="61"/>
-      <c r="F312" s="61"/>
+      <c r="E312" s="79"/>
+      <c r="F312" s="79"/>
     </row>
     <row r="313" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="59" t="s">
+      <c r="A313" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="B313" s="60" t="s">
+      <c r="B313" s="78" t="s">
         <v>202</v>
       </c>
       <c r="C313" s="18" t="s">
@@ -6545,66 +6545,66 @@
       <c r="D313" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E313" s="61">
+      <c r="E313" s="79">
         <v>1</v>
       </c>
-      <c r="F313" s="61" t="s">
+      <c r="F313" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="59"/>
-      <c r="B314" s="60"/>
+      <c r="A314" s="77"/>
+      <c r="B314" s="78"/>
       <c r="C314" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D314" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="E314" s="61"/>
-      <c r="F314" s="61"/>
+      <c r="E314" s="79"/>
+      <c r="F314" s="79"/>
     </row>
     <row r="315" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="59"/>
-      <c r="B315" s="60"/>
+      <c r="A315" s="77"/>
+      <c r="B315" s="78"/>
       <c r="C315" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D315" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="E315" s="61"/>
-      <c r="F315" s="61"/>
+      <c r="E315" s="79"/>
+      <c r="F315" s="79"/>
     </row>
     <row r="316" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="59"/>
-      <c r="B316" s="60"/>
+      <c r="A316" s="77"/>
+      <c r="B316" s="78"/>
       <c r="C316" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D316" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E316" s="61"/>
-      <c r="F316" s="61"/>
+      <c r="E316" s="79"/>
+      <c r="F316" s="79"/>
     </row>
     <row r="317" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="59"/>
-      <c r="B317" s="60"/>
+      <c r="A317" s="77"/>
+      <c r="B317" s="78"/>
       <c r="C317" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D317" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E317" s="61"/>
-      <c r="F317" s="61"/>
+      <c r="E317" s="79"/>
+      <c r="F317" s="79"/>
     </row>
     <row r="318" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="59" t="s">
+      <c r="A318" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="B318" s="60" t="s">
+      <c r="B318" s="78" t="s">
         <v>205</v>
       </c>
       <c r="C318" s="18" t="s">
@@ -6613,66 +6613,66 @@
       <c r="D318" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E318" s="61">
+      <c r="E318" s="79">
         <v>1</v>
       </c>
-      <c r="F318" s="61" t="s">
+      <c r="F318" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="59"/>
-      <c r="B319" s="60"/>
+      <c r="A319" s="77"/>
+      <c r="B319" s="78"/>
       <c r="C319" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D319" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="E319" s="61"/>
-      <c r="F319" s="61"/>
+      <c r="E319" s="79"/>
+      <c r="F319" s="79"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="59"/>
-      <c r="B320" s="60"/>
+      <c r="A320" s="77"/>
+      <c r="B320" s="78"/>
       <c r="C320" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D320" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="E320" s="61"/>
-      <c r="F320" s="61"/>
+      <c r="E320" s="79"/>
+      <c r="F320" s="79"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="59"/>
-      <c r="B321" s="60"/>
+      <c r="A321" s="77"/>
+      <c r="B321" s="78"/>
       <c r="C321" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D321" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E321" s="61"/>
-      <c r="F321" s="61"/>
+      <c r="E321" s="79"/>
+      <c r="F321" s="79"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="59"/>
-      <c r="B322" s="60"/>
+      <c r="A322" s="77"/>
+      <c r="B322" s="78"/>
       <c r="C322" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D322" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E322" s="61"/>
-      <c r="F322" s="61"/>
+      <c r="E322" s="79"/>
+      <c r="F322" s="79"/>
     </row>
     <row r="323" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="59" t="s">
+      <c r="A323" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="B323" s="60" t="s">
+      <c r="B323" s="78" t="s">
         <v>206</v>
       </c>
       <c r="C323" s="18" t="s">
@@ -6681,66 +6681,66 @@
       <c r="D323" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E323" s="61">
+      <c r="E323" s="79">
         <v>1</v>
       </c>
-      <c r="F323" s="61" t="s">
+      <c r="F323" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="324" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="59"/>
-      <c r="B324" s="60"/>
+      <c r="A324" s="77"/>
+      <c r="B324" s="78"/>
       <c r="C324" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D324" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="E324" s="61"/>
-      <c r="F324" s="61"/>
+      <c r="E324" s="79"/>
+      <c r="F324" s="79"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="59"/>
-      <c r="B325" s="60"/>
+      <c r="A325" s="77"/>
+      <c r="B325" s="78"/>
       <c r="C325" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D325" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="E325" s="61"/>
-      <c r="F325" s="61"/>
+      <c r="E325" s="79"/>
+      <c r="F325" s="79"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="59"/>
-      <c r="B326" s="60"/>
+      <c r="A326" s="77"/>
+      <c r="B326" s="78"/>
       <c r="C326" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D326" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E326" s="61"/>
-      <c r="F326" s="61"/>
+      <c r="E326" s="79"/>
+      <c r="F326" s="79"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="59"/>
-      <c r="B327" s="60"/>
+      <c r="A327" s="77"/>
+      <c r="B327" s="78"/>
       <c r="C327" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D327" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E327" s="61"/>
-      <c r="F327" s="61"/>
+      <c r="E327" s="79"/>
+      <c r="F327" s="79"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="59" t="s">
+      <c r="A328" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="B328" s="60" t="s">
+      <c r="B328" s="78" t="s">
         <v>268</v>
       </c>
       <c r="C328" s="18" t="s">
@@ -6749,66 +6749,66 @@
       <c r="D328" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E328" s="61">
+      <c r="E328" s="79">
         <v>1</v>
       </c>
-      <c r="F328" s="61" t="s">
+      <c r="F328" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="59"/>
-      <c r="B329" s="60"/>
+      <c r="A329" s="77"/>
+      <c r="B329" s="78"/>
       <c r="C329" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D329" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="E329" s="61"/>
-      <c r="F329" s="61"/>
+      <c r="E329" s="79"/>
+      <c r="F329" s="79"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="59"/>
-      <c r="B330" s="60"/>
+      <c r="A330" s="77"/>
+      <c r="B330" s="78"/>
       <c r="C330" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D330" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="E330" s="61"/>
-      <c r="F330" s="61"/>
+      <c r="E330" s="79"/>
+      <c r="F330" s="79"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="59"/>
-      <c r="B331" s="60"/>
+      <c r="A331" s="77"/>
+      <c r="B331" s="78"/>
       <c r="C331" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D331" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E331" s="61"/>
-      <c r="F331" s="61"/>
+      <c r="E331" s="79"/>
+      <c r="F331" s="79"/>
     </row>
     <row r="332" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="59"/>
-      <c r="B332" s="60"/>
+      <c r="A332" s="77"/>
+      <c r="B332" s="78"/>
       <c r="C332" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D332" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E332" s="61"/>
-      <c r="F332" s="61"/>
+      <c r="E332" s="79"/>
+      <c r="F332" s="79"/>
     </row>
     <row r="333" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="59" t="s">
+      <c r="A333" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B333" s="60" t="s">
+      <c r="B333" s="78" t="s">
         <v>207</v>
       </c>
       <c r="C333" s="18" t="s">
@@ -6817,66 +6817,66 @@
       <c r="D333" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E333" s="61">
+      <c r="E333" s="79">
         <v>1</v>
       </c>
-      <c r="F333" s="61" t="s">
+      <c r="F333" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="59"/>
-      <c r="B334" s="60"/>
+      <c r="A334" s="77"/>
+      <c r="B334" s="78"/>
       <c r="C334" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D334" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="E334" s="61"/>
-      <c r="F334" s="61"/>
+      <c r="E334" s="79"/>
+      <c r="F334" s="79"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="59"/>
-      <c r="B335" s="60"/>
+      <c r="A335" s="77"/>
+      <c r="B335" s="78"/>
       <c r="C335" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D335" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="E335" s="61"/>
-      <c r="F335" s="61"/>
+      <c r="E335" s="79"/>
+      <c r="F335" s="79"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="59"/>
-      <c r="B336" s="60"/>
+      <c r="A336" s="77"/>
+      <c r="B336" s="78"/>
       <c r="C336" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D336" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E336" s="61"/>
-      <c r="F336" s="61"/>
+      <c r="E336" s="79"/>
+      <c r="F336" s="79"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="59"/>
-      <c r="B337" s="60"/>
+      <c r="A337" s="77"/>
+      <c r="B337" s="78"/>
       <c r="C337" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D337" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E337" s="61"/>
-      <c r="F337" s="61"/>
+      <c r="E337" s="79"/>
+      <c r="F337" s="79"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="59" t="s">
+      <c r="A338" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B338" s="60" t="s">
+      <c r="B338" s="78" t="s">
         <v>208</v>
       </c>
       <c r="C338" s="18" t="s">
@@ -6885,66 +6885,66 @@
       <c r="D338" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E338" s="61">
+      <c r="E338" s="79">
         <v>1</v>
       </c>
-      <c r="F338" s="61" t="s">
+      <c r="F338" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="59"/>
-      <c r="B339" s="60"/>
+      <c r="A339" s="77"/>
+      <c r="B339" s="78"/>
       <c r="C339" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D339" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="E339" s="61"/>
-      <c r="F339" s="61"/>
+      <c r="E339" s="79"/>
+      <c r="F339" s="79"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="59"/>
-      <c r="B340" s="60"/>
+      <c r="A340" s="77"/>
+      <c r="B340" s="78"/>
       <c r="C340" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D340" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="E340" s="61"/>
-      <c r="F340" s="61"/>
+      <c r="E340" s="79"/>
+      <c r="F340" s="79"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="59"/>
-      <c r="B341" s="60"/>
+      <c r="A341" s="77"/>
+      <c r="B341" s="78"/>
       <c r="C341" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D341" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E341" s="61"/>
-      <c r="F341" s="61"/>
+      <c r="E341" s="79"/>
+      <c r="F341" s="79"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="59"/>
-      <c r="B342" s="60"/>
+      <c r="A342" s="77"/>
+      <c r="B342" s="78"/>
       <c r="C342" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D342" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E342" s="61"/>
-      <c r="F342" s="61"/>
+      <c r="E342" s="79"/>
+      <c r="F342" s="79"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="59" t="s">
+      <c r="A343" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B343" s="60" t="s">
+      <c r="B343" s="78" t="s">
         <v>209</v>
       </c>
       <c r="C343" s="18" t="s">
@@ -6953,66 +6953,66 @@
       <c r="D343" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E343" s="61">
+      <c r="E343" s="79">
         <v>1</v>
       </c>
-      <c r="F343" s="61" t="s">
+      <c r="F343" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="59"/>
-      <c r="B344" s="60"/>
+      <c r="A344" s="77"/>
+      <c r="B344" s="78"/>
       <c r="C344" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D344" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="E344" s="61"/>
-      <c r="F344" s="61"/>
+      <c r="E344" s="79"/>
+      <c r="F344" s="79"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="59"/>
-      <c r="B345" s="60"/>
+      <c r="A345" s="77"/>
+      <c r="B345" s="78"/>
       <c r="C345" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D345" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="E345" s="61"/>
-      <c r="F345" s="61"/>
+      <c r="E345" s="79"/>
+      <c r="F345" s="79"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="59"/>
-      <c r="B346" s="60"/>
+      <c r="A346" s="77"/>
+      <c r="B346" s="78"/>
       <c r="C346" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D346" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E346" s="61"/>
-      <c r="F346" s="61"/>
+      <c r="E346" s="79"/>
+      <c r="F346" s="79"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="59"/>
-      <c r="B347" s="60"/>
+      <c r="A347" s="77"/>
+      <c r="B347" s="78"/>
       <c r="C347" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D347" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E347" s="61"/>
-      <c r="F347" s="61"/>
+      <c r="E347" s="79"/>
+      <c r="F347" s="79"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="59" t="s">
+      <c r="A348" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B348" s="60" t="s">
+      <c r="B348" s="78" t="s">
         <v>210</v>
       </c>
       <c r="C348" s="18" t="s">
@@ -7021,30 +7021,30 @@
       <c r="D348" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E348" s="61">
+      <c r="E348" s="79">
         <v>1</v>
       </c>
-      <c r="F348" s="61" t="s">
+      <c r="F348" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="59"/>
-      <c r="B349" s="60"/>
+      <c r="A349" s="77"/>
+      <c r="B349" s="78"/>
       <c r="C349" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D349" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="E349" s="61"/>
-      <c r="F349" s="61"/>
+      <c r="E349" s="79"/>
+      <c r="F349" s="79"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="59" t="s">
+      <c r="A350" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B350" s="60" t="s">
+      <c r="B350" s="78" t="s">
         <v>212</v>
       </c>
       <c r="C350" s="18" t="s">
@@ -7053,66 +7053,66 @@
       <c r="D350" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E350" s="61">
+      <c r="E350" s="79">
         <v>1</v>
       </c>
-      <c r="F350" s="61" t="s">
+      <c r="F350" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="59"/>
-      <c r="B351" s="60"/>
+      <c r="A351" s="77"/>
+      <c r="B351" s="78"/>
       <c r="C351" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D351" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="E351" s="61"/>
-      <c r="F351" s="61"/>
+      <c r="E351" s="79"/>
+      <c r="F351" s="79"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="59"/>
-      <c r="B352" s="60"/>
+      <c r="A352" s="77"/>
+      <c r="B352" s="78"/>
       <c r="C352" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D352" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="E352" s="61"/>
-      <c r="F352" s="61"/>
+      <c r="E352" s="79"/>
+      <c r="F352" s="79"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="59"/>
-      <c r="B353" s="60"/>
+      <c r="A353" s="77"/>
+      <c r="B353" s="78"/>
       <c r="C353" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D353" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E353" s="61"/>
-      <c r="F353" s="61"/>
+      <c r="E353" s="79"/>
+      <c r="F353" s="79"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="59"/>
-      <c r="B354" s="60"/>
+      <c r="A354" s="77"/>
+      <c r="B354" s="78"/>
       <c r="C354" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D354" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E354" s="61"/>
-      <c r="F354" s="61"/>
+      <c r="E354" s="79"/>
+      <c r="F354" s="79"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="59" t="s">
+      <c r="A355" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B355" s="60" t="s">
+      <c r="B355" s="78" t="s">
         <v>213</v>
       </c>
       <c r="C355" s="18" t="s">
@@ -7121,30 +7121,30 @@
       <c r="D355" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E355" s="61">
+      <c r="E355" s="79">
         <v>1</v>
       </c>
-      <c r="F355" s="61" t="s">
+      <c r="F355" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="59"/>
-      <c r="B356" s="60"/>
+      <c r="A356" s="77"/>
+      <c r="B356" s="78"/>
       <c r="C356" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D356" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="E356" s="61"/>
-      <c r="F356" s="61"/>
+      <c r="E356" s="79"/>
+      <c r="F356" s="79"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="59" t="s">
+      <c r="A357" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B357" s="60" t="s">
+      <c r="B357" s="78" t="s">
         <v>214</v>
       </c>
       <c r="C357" s="18" t="s">
@@ -7153,30 +7153,30 @@
       <c r="D357" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E357" s="61">
+      <c r="E357" s="79">
         <v>1</v>
       </c>
-      <c r="F357" s="61" t="s">
+      <c r="F357" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="59"/>
-      <c r="B358" s="60"/>
+      <c r="A358" s="77"/>
+      <c r="B358" s="78"/>
       <c r="C358" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D358" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="E358" s="61"/>
-      <c r="F358" s="61"/>
+      <c r="E358" s="79"/>
+      <c r="F358" s="79"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="59" t="s">
+      <c r="A359" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B359" s="60" t="s">
+      <c r="B359" s="78" t="s">
         <v>215</v>
       </c>
       <c r="C359" s="18" t="s">
@@ -7185,66 +7185,66 @@
       <c r="D359" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E359" s="61">
+      <c r="E359" s="79">
         <v>1</v>
       </c>
-      <c r="F359" s="61" t="s">
+      <c r="F359" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="59"/>
-      <c r="B360" s="60"/>
+      <c r="A360" s="77"/>
+      <c r="B360" s="78"/>
       <c r="C360" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D360" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="E360" s="61"/>
-      <c r="F360" s="61"/>
+      <c r="E360" s="79"/>
+      <c r="F360" s="79"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="59"/>
-      <c r="B361" s="60"/>
+      <c r="A361" s="77"/>
+      <c r="B361" s="78"/>
       <c r="C361" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D361" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="E361" s="61"/>
-      <c r="F361" s="61"/>
+      <c r="E361" s="79"/>
+      <c r="F361" s="79"/>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="59"/>
-      <c r="B362" s="60"/>
+      <c r="A362" s="77"/>
+      <c r="B362" s="78"/>
       <c r="C362" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D362" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E362" s="61"/>
-      <c r="F362" s="61"/>
+      <c r="E362" s="79"/>
+      <c r="F362" s="79"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="59"/>
-      <c r="B363" s="60"/>
+      <c r="A363" s="77"/>
+      <c r="B363" s="78"/>
       <c r="C363" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D363" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E363" s="61"/>
-      <c r="F363" s="61"/>
+      <c r="E363" s="79"/>
+      <c r="F363" s="79"/>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="59" t="s">
+      <c r="A364" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B364" s="60" t="s">
+      <c r="B364" s="78" t="s">
         <v>216</v>
       </c>
       <c r="C364" s="18" t="s">
@@ -7253,30 +7253,30 @@
       <c r="D364" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E364" s="61">
+      <c r="E364" s="79">
         <v>1</v>
       </c>
-      <c r="F364" s="61" t="s">
+      <c r="F364" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="59"/>
-      <c r="B365" s="60"/>
+      <c r="A365" s="77"/>
+      <c r="B365" s="78"/>
       <c r="C365" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D365" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="E365" s="61"/>
-      <c r="F365" s="61"/>
+      <c r="E365" s="79"/>
+      <c r="F365" s="79"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="59" t="s">
+      <c r="A366" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B366" s="60" t="s">
+      <c r="B366" s="78" t="s">
         <v>217</v>
       </c>
       <c r="C366" s="18" t="s">
@@ -7285,66 +7285,66 @@
       <c r="D366" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E366" s="61">
+      <c r="E366" s="79">
         <v>1</v>
       </c>
-      <c r="F366" s="61" t="s">
+      <c r="F366" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="59"/>
-      <c r="B367" s="60"/>
+      <c r="A367" s="77"/>
+      <c r="B367" s="78"/>
       <c r="C367" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D367" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="E367" s="61"/>
-      <c r="F367" s="61"/>
+      <c r="E367" s="79"/>
+      <c r="F367" s="79"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="59"/>
-      <c r="B368" s="60"/>
+      <c r="A368" s="77"/>
+      <c r="B368" s="78"/>
       <c r="C368" s="18" t="s">
         <v>95</v>
       </c>
       <c r="D368" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="E368" s="61"/>
-      <c r="F368" s="61"/>
+      <c r="E368" s="79"/>
+      <c r="F368" s="79"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="59"/>
-      <c r="B369" s="60"/>
+      <c r="A369" s="77"/>
+      <c r="B369" s="78"/>
       <c r="C369" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D369" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E369" s="61"/>
-      <c r="F369" s="61"/>
+      <c r="E369" s="79"/>
+      <c r="F369" s="79"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="59"/>
-      <c r="B370" s="60"/>
+      <c r="A370" s="77"/>
+      <c r="B370" s="78"/>
       <c r="C370" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D370" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E370" s="61"/>
-      <c r="F370" s="61"/>
+      <c r="E370" s="79"/>
+      <c r="F370" s="79"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="59" t="s">
+      <c r="A371" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B371" s="60" t="s">
+      <c r="B371" s="78" t="s">
         <v>218</v>
       </c>
       <c r="C371" s="18" t="s">
@@ -7353,121 +7353,270 @@
       <c r="D371" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E371" s="61">
+      <c r="E371" s="79">
         <v>1</v>
       </c>
-      <c r="F371" s="61" t="s">
+      <c r="F371" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="59"/>
-      <c r="B372" s="60"/>
+      <c r="A372" s="77"/>
+      <c r="B372" s="78"/>
       <c r="C372" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D372" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="E372" s="61"/>
-      <c r="F372" s="61"/>
+      <c r="E372" s="79"/>
+      <c r="F372" s="79"/>
     </row>
     <row r="373" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="88" t="s">
+      <c r="A373" s="82" t="s">
         <v>365</v>
       </c>
-      <c r="B373" s="88"/>
-      <c r="C373" s="88"/>
-      <c r="D373" s="88"/>
-      <c r="E373" s="88"/>
-      <c r="F373" s="88"/>
+      <c r="B373" s="82"/>
+      <c r="C373" s="82"/>
+      <c r="D373" s="82"/>
+      <c r="E373" s="82"/>
+      <c r="F373" s="82"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="89" t="s">
+      <c r="A374" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="B374" s="89"/>
-      <c r="C374" s="89"/>
-      <c r="D374" s="89"/>
-      <c r="E374" s="89"/>
-      <c r="F374" s="89"/>
+      <c r="B374" s="83"/>
+      <c r="C374" s="83"/>
+      <c r="D374" s="83"/>
+      <c r="E374" s="83"/>
+      <c r="F374" s="83"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="89" t="s">
+      <c r="A375" s="83" t="s">
         <v>367</v>
       </c>
-      <c r="B375" s="89"/>
-      <c r="C375" s="89"/>
-      <c r="D375" s="89"/>
-      <c r="E375" s="89"/>
-      <c r="F375" s="89"/>
+      <c r="B375" s="83"/>
+      <c r="C375" s="83"/>
+      <c r="D375" s="83"/>
+      <c r="E375" s="83"/>
+      <c r="F375" s="83"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="87" t="s">
+      <c r="A376" s="81" t="s">
         <v>322</v>
       </c>
-      <c r="B376" s="87"/>
-      <c r="C376" s="87"/>
-      <c r="D376" s="87"/>
-      <c r="E376" s="87"/>
-      <c r="F376" s="87"/>
+      <c r="B376" s="81"/>
+      <c r="C376" s="81"/>
+      <c r="D376" s="81"/>
+      <c r="E376" s="81"/>
+      <c r="F376" s="81"/>
     </row>
     <row r="377" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="87" t="s">
+      <c r="A377" s="81" t="s">
         <v>326</v>
       </c>
-      <c r="B377" s="87"/>
-      <c r="C377" s="87"/>
-      <c r="D377" s="87"/>
-      <c r="E377" s="87"/>
-      <c r="F377" s="87"/>
+      <c r="B377" s="81"/>
+      <c r="C377" s="81"/>
+      <c r="D377" s="81"/>
+      <c r="E377" s="81"/>
+      <c r="F377" s="81"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="87" t="s">
+      <c r="A378" s="81" t="s">
         <v>328</v>
       </c>
-      <c r="B378" s="87"/>
-      <c r="C378" s="87"/>
-      <c r="D378" s="87"/>
-      <c r="E378" s="87"/>
-      <c r="F378" s="87"/>
+      <c r="B378" s="81"/>
+      <c r="C378" s="81"/>
+      <c r="D378" s="81"/>
+      <c r="E378" s="81"/>
+      <c r="F378" s="81"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="87" t="s">
+      <c r="A379" s="81" t="s">
         <v>329</v>
       </c>
-      <c r="B379" s="87"/>
-      <c r="C379" s="87"/>
-      <c r="D379" s="87"/>
-      <c r="E379" s="87"/>
-      <c r="F379" s="87"/>
+      <c r="B379" s="81"/>
+      <c r="C379" s="81"/>
+      <c r="D379" s="81"/>
+      <c r="E379" s="81"/>
+      <c r="F379" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="221">
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="A51:A66"/>
-    <mergeCell ref="B51:B66"/>
-    <mergeCell ref="E51:E66"/>
-    <mergeCell ref="F51:F66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="A115:A135"/>
-    <mergeCell ref="B115:B135"/>
-    <mergeCell ref="E115:E135"/>
-    <mergeCell ref="F115:F135"/>
-    <mergeCell ref="A136:A156"/>
-    <mergeCell ref="B136:B156"/>
-    <mergeCell ref="E136:E156"/>
-    <mergeCell ref="F136:F156"/>
-    <mergeCell ref="A157:A177"/>
-    <mergeCell ref="B157:B177"/>
-    <mergeCell ref="E157:E177"/>
-    <mergeCell ref="F157:F177"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="B366:B370"/>
+    <mergeCell ref="E366:E370"/>
+    <mergeCell ref="F366:F370"/>
+    <mergeCell ref="A359:A363"/>
+    <mergeCell ref="B359:B363"/>
+    <mergeCell ref="E359:E363"/>
+    <mergeCell ref="F359:F363"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="E355:E356"/>
+    <mergeCell ref="F355:F356"/>
+    <mergeCell ref="B350:B354"/>
+    <mergeCell ref="E350:E354"/>
+    <mergeCell ref="F350:F354"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="E348:E349"/>
+    <mergeCell ref="F348:F349"/>
+    <mergeCell ref="A350:A354"/>
+    <mergeCell ref="A277:A293"/>
+    <mergeCell ref="B277:B293"/>
+    <mergeCell ref="E277:E293"/>
+    <mergeCell ref="F277:F293"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="E294:E297"/>
+    <mergeCell ref="E318:E322"/>
+    <mergeCell ref="B318:B322"/>
+    <mergeCell ref="E328:E332"/>
+    <mergeCell ref="F328:F332"/>
+    <mergeCell ref="A333:A337"/>
+    <mergeCell ref="B333:B337"/>
+    <mergeCell ref="E333:E337"/>
+    <mergeCell ref="F333:F337"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="A228:F228"/>
+    <mergeCell ref="A213:F213"/>
+    <mergeCell ref="E313:E317"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="E94:E98"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="E83:E86"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="B323:B327"/>
+    <mergeCell ref="E323:E327"/>
+    <mergeCell ref="F323:F327"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="F294:F297"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="F112:F114"/>
+    <mergeCell ref="A229:A236"/>
+    <mergeCell ref="B229:B236"/>
+    <mergeCell ref="E229:E236"/>
+    <mergeCell ref="F229:F236"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A251:A256"/>
+    <mergeCell ref="B251:B256"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="B8:B27"/>
+    <mergeCell ref="E8:E27"/>
+    <mergeCell ref="F8:F27"/>
+    <mergeCell ref="E251:E256"/>
+    <mergeCell ref="F251:F256"/>
+    <mergeCell ref="A257:A276"/>
+    <mergeCell ref="B257:B276"/>
+    <mergeCell ref="E257:E276"/>
+    <mergeCell ref="F257:F276"/>
+    <mergeCell ref="F313:F317"/>
+    <mergeCell ref="B308:B312"/>
+    <mergeCell ref="E308:E312"/>
+    <mergeCell ref="F308:F312"/>
+    <mergeCell ref="E298:E302"/>
+    <mergeCell ref="F298:F302"/>
+    <mergeCell ref="A379:F379"/>
+    <mergeCell ref="A373:F373"/>
+    <mergeCell ref="A375:F375"/>
+    <mergeCell ref="A374:F374"/>
+    <mergeCell ref="A376:F376"/>
+    <mergeCell ref="A377:F377"/>
+    <mergeCell ref="A378:F378"/>
+    <mergeCell ref="A357:A358"/>
+    <mergeCell ref="B357:B358"/>
+    <mergeCell ref="E357:E358"/>
+    <mergeCell ref="F357:F358"/>
+    <mergeCell ref="A371:A372"/>
+    <mergeCell ref="B371:B372"/>
+    <mergeCell ref="E371:E372"/>
+    <mergeCell ref="F371:F372"/>
+    <mergeCell ref="E364:E365"/>
+    <mergeCell ref="F364:F365"/>
+    <mergeCell ref="A366:A370"/>
+    <mergeCell ref="A343:A347"/>
+    <mergeCell ref="B343:B347"/>
+    <mergeCell ref="E343:E347"/>
+    <mergeCell ref="F343:F347"/>
+    <mergeCell ref="F318:F322"/>
+    <mergeCell ref="A328:A332"/>
+    <mergeCell ref="B328:B332"/>
+    <mergeCell ref="A298:A302"/>
+    <mergeCell ref="B298:B302"/>
+    <mergeCell ref="A338:A342"/>
+    <mergeCell ref="B338:B342"/>
+    <mergeCell ref="E338:E342"/>
+    <mergeCell ref="F338:F342"/>
+    <mergeCell ref="A303:A307"/>
+    <mergeCell ref="B303:B307"/>
+    <mergeCell ref="E303:E307"/>
+    <mergeCell ref="F303:F307"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A313:A317"/>
+    <mergeCell ref="B313:B317"/>
+    <mergeCell ref="A318:A322"/>
     <mergeCell ref="F89:F92"/>
     <mergeCell ref="B89:B92"/>
     <mergeCell ref="A89:A92"/>
@@ -7492,179 +7641,30 @@
     <mergeCell ref="E106:E108"/>
     <mergeCell ref="F106:F108"/>
     <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A343:A347"/>
-    <mergeCell ref="B343:B347"/>
-    <mergeCell ref="E343:E347"/>
-    <mergeCell ref="F343:F347"/>
-    <mergeCell ref="F318:F322"/>
-    <mergeCell ref="A328:A332"/>
-    <mergeCell ref="B328:B332"/>
-    <mergeCell ref="A298:A302"/>
-    <mergeCell ref="B298:B302"/>
-    <mergeCell ref="A338:A342"/>
-    <mergeCell ref="B338:B342"/>
-    <mergeCell ref="E338:E342"/>
-    <mergeCell ref="F338:F342"/>
-    <mergeCell ref="A303:A307"/>
-    <mergeCell ref="B303:B307"/>
-    <mergeCell ref="E303:E307"/>
-    <mergeCell ref="F303:F307"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A313:A317"/>
-    <mergeCell ref="B313:B317"/>
-    <mergeCell ref="A318:A322"/>
-    <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A373:F373"/>
-    <mergeCell ref="A375:F375"/>
-    <mergeCell ref="A374:F374"/>
-    <mergeCell ref="A376:F376"/>
-    <mergeCell ref="A377:F377"/>
-    <mergeCell ref="A378:F378"/>
-    <mergeCell ref="A357:A358"/>
-    <mergeCell ref="B357:B358"/>
-    <mergeCell ref="E357:E358"/>
-    <mergeCell ref="F357:F358"/>
-    <mergeCell ref="A371:A372"/>
-    <mergeCell ref="B371:B372"/>
-    <mergeCell ref="E371:E372"/>
-    <mergeCell ref="F371:F372"/>
-    <mergeCell ref="E364:E365"/>
-    <mergeCell ref="F364:F365"/>
-    <mergeCell ref="A366:A370"/>
-    <mergeCell ref="E251:E256"/>
-    <mergeCell ref="F251:F256"/>
-    <mergeCell ref="A257:A276"/>
-    <mergeCell ref="B257:B276"/>
-    <mergeCell ref="E257:E276"/>
-    <mergeCell ref="F257:F276"/>
-    <mergeCell ref="F313:F317"/>
-    <mergeCell ref="B308:B312"/>
-    <mergeCell ref="E308:E312"/>
-    <mergeCell ref="F308:F312"/>
-    <mergeCell ref="E298:E302"/>
-    <mergeCell ref="F298:F302"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A8:A27"/>
-    <mergeCell ref="B8:B27"/>
-    <mergeCell ref="E8:E27"/>
-    <mergeCell ref="F8:F27"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="E83:E86"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="B323:B327"/>
-    <mergeCell ref="E323:E327"/>
-    <mergeCell ref="F323:F327"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="F294:F297"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="F112:F114"/>
-    <mergeCell ref="A229:A236"/>
-    <mergeCell ref="B229:B236"/>
-    <mergeCell ref="E229:E236"/>
-    <mergeCell ref="F229:F236"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A251:A256"/>
-    <mergeCell ref="B251:B256"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="A228:F228"/>
-    <mergeCell ref="A213:F213"/>
-    <mergeCell ref="E313:E317"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="E94:E98"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="B350:B354"/>
-    <mergeCell ref="E350:E354"/>
-    <mergeCell ref="F350:F354"/>
-    <mergeCell ref="A348:A349"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="E348:E349"/>
-    <mergeCell ref="F348:F349"/>
-    <mergeCell ref="A350:A354"/>
-    <mergeCell ref="A277:A293"/>
-    <mergeCell ref="B277:B293"/>
-    <mergeCell ref="E277:E293"/>
-    <mergeCell ref="F277:F293"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="E294:E297"/>
-    <mergeCell ref="E318:E322"/>
-    <mergeCell ref="B318:B322"/>
-    <mergeCell ref="E328:E332"/>
-    <mergeCell ref="F328:F332"/>
-    <mergeCell ref="A333:A337"/>
-    <mergeCell ref="B333:B337"/>
-    <mergeCell ref="E333:E337"/>
-    <mergeCell ref="F333:F337"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="B366:B370"/>
-    <mergeCell ref="E366:E370"/>
-    <mergeCell ref="F366:F370"/>
-    <mergeCell ref="A359:A363"/>
-    <mergeCell ref="B359:B363"/>
-    <mergeCell ref="E359:E363"/>
-    <mergeCell ref="F359:F363"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="E355:E356"/>
-    <mergeCell ref="F355:F356"/>
+    <mergeCell ref="A115:A135"/>
+    <mergeCell ref="B115:B135"/>
+    <mergeCell ref="E115:E135"/>
+    <mergeCell ref="F115:F135"/>
+    <mergeCell ref="A136:A156"/>
+    <mergeCell ref="B136:B156"/>
+    <mergeCell ref="E136:E156"/>
+    <mergeCell ref="F136:F156"/>
+    <mergeCell ref="A157:A177"/>
+    <mergeCell ref="B157:B177"/>
+    <mergeCell ref="E157:E177"/>
+    <mergeCell ref="F157:F177"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A51:A66"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="E51:E66"/>
+    <mergeCell ref="F51:F66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7692,44 +7692,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100" t="s">
+      <c r="D2" s="102"/>
+      <c r="E2" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="102" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="47" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
     </row>
     <row r="4" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
@@ -7748,10 +7748,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="96" t="s">
         <v>272</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -7760,48 +7760,48 @@
       <c r="D5" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="E5" s="98">
+      <c r="E5" s="95">
         <v>2</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="95" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="101"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="49" t="s">
         <v>275</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
     </row>
     <row r="7" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
-      <c r="B7" s="101"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="49" t="s">
         <v>277</v>
       </c>
       <c r="D7" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
     </row>
     <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="101"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="49" t="s">
         <v>279</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
     </row>
     <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
@@ -7852,10 +7852,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="99" t="s">
         <v>355</v>
       </c>
       <c r="C12" s="52">
@@ -7864,24 +7864,24 @@
       <c r="D12" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="98">
+      <c r="E12" s="95">
         <v>1</v>
       </c>
-      <c r="F12" s="99" t="s">
+      <c r="F12" s="101" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="97"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="52">
         <v>1</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="101"/>
     </row>
     <row r="14" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
@@ -7980,10 +7980,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="96" t="s">
         <v>261</v>
       </c>
       <c r="C20" s="44">
@@ -7992,30 +7992,30 @@
       <c r="D20" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="98">
+      <c r="E20" s="95">
         <v>1</v>
       </c>
-      <c r="F20" s="102" t="s">
+      <c r="F20" s="97" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="44">
         <v>1</v>
       </c>
       <c r="D21" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="102"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="97"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="95" t="s">
         <v>292</v>
       </c>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="96" t="s">
         <v>309</v>
       </c>
       <c r="C22" s="44">
@@ -8024,24 +8024,24 @@
       <c r="D22" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="98">
+      <c r="E22" s="95">
         <v>1</v>
       </c>
-      <c r="F22" s="102" t="s">
+      <c r="F22" s="97" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
-      <c r="B23" s="101"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="44">
         <v>1</v>
       </c>
       <c r="D23" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="102"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="97"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
@@ -8058,14 +8058,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="E12:E13"/>
@@ -8080,6 +8072,14 @@
     <mergeCell ref="F5:F8"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
